--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_11_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_11_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1976008.21573472</v>
+        <v>1973559.125641803</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9117393.157780237</v>
+        <v>9117393.157780236</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -677,43 +677,43 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="J2" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>9.956053622142033</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>6.602605461619505</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -741,64 +741,64 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12.73205987707308</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="F3" t="n">
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="G3" t="n">
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>13.47865120333094</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -823,58 +823,58 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="F4" t="n">
+      <c r="R4" t="n">
+        <v>13.47865120333094</v>
+      </c>
+      <c r="S4" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="G4" t="n">
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>13.47865120333094</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -911,13 +911,13 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>6.602605461619507</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,16 +938,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>15.26809192273228</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>13.47865120333094</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -993,52 +993,52 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="J6" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="S6" t="n">
-        <v>12.73205987707308</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="X6" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1051,76 +1051,76 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="C7" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
         <v>13.47865120333094</v>
       </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="T7" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1139,55 +1139,55 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>12.57565326968602</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G8" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.3875692273843439</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="G8" t="n">
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="H8" t="n">
+      <c r="U8" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>22.56635248423083</v>
+      </c>
+      <c r="T9" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>25.62029119463083</v>
@@ -1272,7 +1272,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="W9" t="n">
-        <v>21.81976115797297</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1291,61 +1291,61 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.721440735106512</v>
+      </c>
+      <c r="Q10" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="E10" t="n">
+      <c r="R10" t="n">
+        <v>19.84491174912431</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="F10" t="n">
+      <c r="U10" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>340.1814602096663</v>
       </c>
       <c r="C11" t="n">
-        <v>187.6211554184033</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>312.1306601668687</v>
@@ -1379,7 +1379,7 @@
         <v>339.3779886184475</v>
       </c>
       <c r="F11" t="n">
-        <v>364.3236642878972</v>
+        <v>224.7661004816478</v>
       </c>
       <c r="G11" t="n">
         <v>368.3946461043377</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>67.21194748767827</v>
+        <v>67.2119474876783</v>
       </c>
       <c r="T11" t="n">
-        <v>161.4763477736235</v>
+        <v>161.4763477736236</v>
       </c>
       <c r="U11" t="n">
         <v>208.4448146574636</v>
@@ -1433,7 +1433,7 @@
         <v>306.6885872635988</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>327.1787192246548</v>
       </c>
       <c r="Y11" t="n">
         <v>343.6855572022394</v>
@@ -1528,25 +1528,25 @@
         <v>137.2795987281231</v>
       </c>
       <c r="C13" t="n">
-        <v>109.3175289427997</v>
+        <v>124.6944396448136</v>
       </c>
       <c r="D13" t="n">
         <v>106.0630915643981</v>
       </c>
       <c r="E13" t="n">
-        <v>103.8815811927549</v>
+        <v>103.881581192755</v>
       </c>
       <c r="F13" t="n">
         <v>102.868666569117</v>
       </c>
       <c r="G13" t="n">
-        <v>123.4847763686125</v>
+        <v>108.1078656665984</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>54.14135128077333</v>
+        <v>54.14135128077334</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.89008885777204</v>
+        <v>46.89008885777207</v>
       </c>
       <c r="S13" t="n">
         <v>147.4144358143099</v>
@@ -1607,22 +1607,22 @@
         <v>340.1814602096663</v>
       </c>
       <c r="C14" t="n">
-        <v>322.7205103171933</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>312.1306601668687</v>
+        <v>172.5730963606199</v>
       </c>
       <c r="E14" t="n">
         <v>339.3779886184475</v>
       </c>
       <c r="F14" t="n">
-        <v>364.3236642878972</v>
+        <v>364.3236642878971</v>
       </c>
       <c r="G14" t="n">
         <v>368.3946461043377</v>
       </c>
       <c r="H14" t="n">
-        <v>65.69319408669659</v>
+        <v>252.3145060649995</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>67.21194748767822</v>
       </c>
       <c r="T14" t="n">
         <v>161.4763477736235</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>208.4448146574636</v>
       </c>
       <c r="V14" t="n">
-        <v>285.1998770163207</v>
+        <v>285.1998770163206</v>
       </c>
       <c r="W14" t="n">
-        <v>306.6885872635988</v>
+        <v>306.6885872635987</v>
       </c>
       <c r="X14" t="n">
-        <v>327.1787192246548</v>
+        <v>327.1787192246547</v>
       </c>
       <c r="Y14" t="n">
-        <v>343.6855572022394</v>
+        <v>343.6855572022393</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>137.2795987281231</v>
+        <v>137.279598728123</v>
       </c>
       <c r="C16" t="n">
-        <v>124.6944396448136</v>
+        <v>124.6944396448135</v>
       </c>
       <c r="D16" t="n">
-        <v>106.0630915643981</v>
+        <v>91.25130603459739</v>
       </c>
       <c r="E16" t="n">
         <v>103.8815811927549</v>
       </c>
       <c r="F16" t="n">
-        <v>102.868666569117</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>123.4847763686125</v>
       </c>
       <c r="H16" t="n">
-        <v>102.3035413969047</v>
+        <v>102.3035413969046</v>
       </c>
       <c r="I16" t="n">
-        <v>54.14135128077332</v>
+        <v>54.14135128077326</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.89008885777204</v>
+        <v>46.89008885777199</v>
       </c>
       <c r="S16" t="n">
-        <v>147.4144358143099</v>
+        <v>147.4144358143098</v>
       </c>
       <c r="T16" t="n">
-        <v>177.0450614114216</v>
+        <v>177.0450614114215</v>
       </c>
       <c r="U16" t="n">
-        <v>243.6600758188931</v>
+        <v>243.660075818893</v>
       </c>
       <c r="V16" t="n">
-        <v>91.90480977109453</v>
+        <v>209.5852618700137</v>
       </c>
       <c r="W16" t="n">
-        <v>243.9706168827768</v>
+        <v>243.9706168827767</v>
       </c>
       <c r="X16" t="n">
         <v>183.1572739352229</v>
       </c>
       <c r="Y16" t="n">
-        <v>176.0322718982806</v>
+        <v>176.0322718982805</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>340.1814602096663</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>322.7205103171933</v>
       </c>
       <c r="D17" t="n">
         <v>312.1306601668687</v>
@@ -1853,10 +1853,10 @@
         <v>339.3779886184475</v>
       </c>
       <c r="F17" t="n">
-        <v>364.3236642878972</v>
+        <v>270.4402362687905</v>
       </c>
       <c r="G17" t="n">
-        <v>368.3946461043377</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>252.3145060649996</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>67.21194748767827</v>
+        <v>67.2119474876783</v>
       </c>
       <c r="T17" t="n">
-        <v>161.4763477736235</v>
+        <v>161.4763477736236</v>
       </c>
       <c r="U17" t="n">
         <v>208.4448146574636</v>
       </c>
       <c r="V17" t="n">
-        <v>145.6423132100699</v>
+        <v>285.1998770163207</v>
       </c>
       <c r="W17" t="n">
         <v>306.6885872635988</v>
@@ -2008,19 +2008,19 @@
         <v>106.0630915643981</v>
       </c>
       <c r="E19" t="n">
-        <v>103.8815811927549</v>
+        <v>103.881581192755</v>
       </c>
       <c r="F19" t="n">
-        <v>102.868666569117</v>
+        <v>39.32956575097104</v>
       </c>
       <c r="G19" t="n">
-        <v>123.4847763686125</v>
+        <v>123.4847763686126</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>102.3035413969047</v>
       </c>
       <c r="I19" t="n">
-        <v>54.14135128077333</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.89008885777204</v>
+        <v>46.89008885777207</v>
       </c>
       <c r="S19" t="n">
         <v>147.4144358143099</v>
@@ -2059,7 +2059,7 @@
         <v>243.6600758188931</v>
       </c>
       <c r="V19" t="n">
-        <v>194.2083511679997</v>
+        <v>209.5852618700138</v>
       </c>
       <c r="W19" t="n">
         <v>243.9706168827768</v>
@@ -2084,7 +2084,7 @@
         <v>322.7205103171933</v>
       </c>
       <c r="D20" t="n">
-        <v>312.1306601668687</v>
+        <v>218.2472321477607</v>
       </c>
       <c r="E20" t="n">
         <v>339.3779886184475</v>
@@ -2093,10 +2093,10 @@
         <v>364.3236642878972</v>
       </c>
       <c r="G20" t="n">
-        <v>368.3946461043377</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>227.1695418603202</v>
+        <v>252.3145060649996</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>67.2119474876783</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>161.4763477736236</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>208.4448146574636</v>
       </c>
       <c r="V20" t="n">
         <v>285.1998770163207</v>
@@ -2242,7 +2242,7 @@
         <v>124.6944396448136</v>
       </c>
       <c r="D22" t="n">
-        <v>92.26422065823441</v>
+        <v>106.0630915643981</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>123.4847763686126</v>
       </c>
       <c r="H22" t="n">
-        <v>102.3035413969047</v>
+        <v>88.50467049074138</v>
       </c>
       <c r="I22" t="n">
-        <v>54.14135128077332</v>
+        <v>54.14135128077335</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.89008885777204</v>
+        <v>46.89008885777207</v>
       </c>
       <c r="S22" t="n">
         <v>147.4144358143099</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>67.21194748767827</v>
+        <v>67.2119474876783</v>
       </c>
       <c r="T23" t="n">
-        <v>161.4763477736235</v>
+        <v>161.4763477736236</v>
       </c>
       <c r="U23" t="n">
         <v>208.4448146574636</v>
@@ -2482,7 +2482,7 @@
         <v>106.0630915643981</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>40.34248037460937</v>
       </c>
       <c r="F25" t="n">
         <v>102.868666569117</v>
@@ -2491,10 +2491,10 @@
         <v>123.4847763686126</v>
       </c>
       <c r="H25" t="n">
-        <v>88.50467049074069</v>
+        <v>102.3035413969047</v>
       </c>
       <c r="I25" t="n">
-        <v>54.14135128077332</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.89008885777204</v>
+        <v>46.89008885777207</v>
       </c>
       <c r="S25" t="n">
         <v>147.4144358143099</v>
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0371578224268</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2764,16 +2764,16 @@
         <v>189.9668172681241</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5974428652358</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2124572727073</v>
+        <v>241.5039983092939</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>274.5619659639283</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>31.04615493305677</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>54.44639318480797</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>89.44247031158628</v>
       </c>
       <c r="S31" t="n">
         <v>189.9668172681241</v>
@@ -3010,10 +3010,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3187,13 +3187,13 @@
         <v>177.1626226939781</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>164.5774636106687</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>143.76460515861</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>14.86807873791074</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>187.2974597801649</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>216.9280853772766</v>
@@ -3253,7 +3253,7 @@
         <v>223.040297901078</v>
       </c>
       <c r="Y34" t="n">
-        <v>215.9152958641356</v>
+        <v>109.738765612933</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>335.2453652758169</v>
       </c>
       <c r="C35" t="n">
-        <v>317.7844153833439</v>
+        <v>317.7844153833438</v>
       </c>
       <c r="D35" t="n">
         <v>307.1945652330193</v>
@@ -3332,7 +3332,7 @@
         <v>322.2426242908053</v>
       </c>
       <c r="Y35" t="n">
-        <v>338.7494622683899</v>
+        <v>338.7494622683898</v>
       </c>
     </row>
     <row r="36">
@@ -3442,7 +3442,7 @@
         <v>97.36744646305517</v>
       </c>
       <c r="I37" t="n">
-        <v>49.20525634692383</v>
+        <v>49.20525634692473</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3503,7 +3503,7 @@
         <v>335.2453652758169</v>
       </c>
       <c r="C38" t="n">
-        <v>317.7844153833439</v>
+        <v>317.7844153833438</v>
       </c>
       <c r="D38" t="n">
         <v>307.1945652330193</v>
@@ -3569,7 +3569,7 @@
         <v>322.2426242908053</v>
       </c>
       <c r="Y38" t="n">
-        <v>338.7494622683899</v>
+        <v>338.7494622683898</v>
       </c>
     </row>
     <row r="39">
@@ -3740,7 +3740,7 @@
         <v>335.2453652758169</v>
       </c>
       <c r="C41" t="n">
-        <v>317.7844153833439</v>
+        <v>317.7844153833438</v>
       </c>
       <c r="D41" t="n">
         <v>307.1945652330193</v>
@@ -3806,7 +3806,7 @@
         <v>322.2426242908053</v>
       </c>
       <c r="Y41" t="n">
-        <v>338.7494622683899</v>
+        <v>338.7494622683888</v>
       </c>
     </row>
     <row r="42">
@@ -3901,7 +3901,7 @@
         <v>119.7583447109641</v>
       </c>
       <c r="D43" t="n">
-        <v>101.1269966305486</v>
+        <v>101.1269966305493</v>
       </c>
       <c r="E43" t="n">
         <v>98.94548625890545</v>
@@ -3986,13 +3986,13 @@
         <v>334.4418936845981</v>
       </c>
       <c r="F44" t="n">
-        <v>359.3875693540477</v>
+        <v>359.3875693540478</v>
       </c>
       <c r="G44" t="n">
-        <v>363.4585511704882</v>
+        <v>363.4585511704883</v>
       </c>
       <c r="H44" t="n">
-        <v>247.3784111311501</v>
+        <v>247.3784111311502</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.27585255382878</v>
+        <v>62.27585255382886</v>
       </c>
       <c r="T44" t="n">
-        <v>156.540252839774</v>
+        <v>156.5402528397741</v>
       </c>
       <c r="U44" t="n">
-        <v>203.5087197236141</v>
+        <v>203.5087197236142</v>
       </c>
       <c r="V44" t="n">
-        <v>280.2637820824712</v>
+        <v>280.2637820824713</v>
       </c>
       <c r="W44" t="n">
-        <v>301.7524923297493</v>
+        <v>301.7524923297494</v>
       </c>
       <c r="X44" t="n">
-        <v>322.2426242908053</v>
+        <v>322.2426242908054</v>
       </c>
       <c r="Y44" t="n">
         <v>338.7494622683899</v>
@@ -4071,10 +4071,10 @@
         <v>135.0130068782078</v>
       </c>
       <c r="H45" t="n">
-        <v>89.72762122081146</v>
+        <v>89.72762122081144</v>
       </c>
       <c r="I45" t="n">
-        <v>9.157572600221926</v>
+        <v>9.157572600221911</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4107,7 +4107,7 @@
         <v>128.3949647135445</v>
       </c>
       <c r="T45" t="n">
-        <v>190.7711368004463</v>
+        <v>190.7711368004462</v>
       </c>
       <c r="U45" t="n">
         <v>225.7880590359088</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.3435037942736</v>
+        <v>132.3435037942737</v>
       </c>
       <c r="C46" t="n">
-        <v>119.7583447109641</v>
+        <v>119.7583447109642</v>
       </c>
       <c r="D46" t="n">
-        <v>101.1269966305486</v>
+        <v>101.1269966305487</v>
       </c>
       <c r="E46" t="n">
-        <v>98.94548625890545</v>
+        <v>98.94548625890553</v>
       </c>
       <c r="F46" t="n">
-        <v>97.93257163526752</v>
+        <v>97.93257163526761</v>
       </c>
       <c r="G46" t="n">
-        <v>118.5486814347631</v>
+        <v>118.5486814347632</v>
       </c>
       <c r="H46" t="n">
-        <v>97.36744646305517</v>
+        <v>97.36744646305526</v>
       </c>
       <c r="I46" t="n">
-        <v>49.20525634692476</v>
+        <v>49.20525634692391</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95399392392255</v>
+        <v>41.95399392392262</v>
       </c>
       <c r="S46" t="n">
-        <v>142.4783408804604</v>
+        <v>142.4783408804605</v>
       </c>
       <c r="T46" t="n">
-        <v>172.1089664775721</v>
+        <v>172.1089664775722</v>
       </c>
       <c r="U46" t="n">
-        <v>238.7239808850436</v>
+        <v>238.7239808850437</v>
       </c>
       <c r="V46" t="n">
-        <v>204.6491669361643</v>
+        <v>204.6491669361644</v>
       </c>
       <c r="W46" t="n">
-        <v>239.0345219489273</v>
+        <v>239.0345219489274</v>
       </c>
       <c r="X46" t="n">
-        <v>178.2211790013734</v>
+        <v>178.2211790013735</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.0961769644311</v>
+        <v>171.0961769644312</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>51.15433024019471</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="C2" t="n">
-        <v>51.15433024019471</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="D2" t="n">
-        <v>51.15433024019471</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="E2" t="n">
-        <v>51.15433024019471</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="F2" t="n">
-        <v>44.20882949099123</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="G2" t="n">
-        <v>28.75151886964269</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H2" t="n">
-        <v>28.75151886964269</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I2" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J2" t="n">
         <v>1.224219001210804</v>
@@ -4334,10 +4334,10 @@
         <v>1.224219001210804</v>
       </c>
       <c r="L2" t="n">
-        <v>15.7618196405891</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="M2" t="n">
-        <v>15.7618196405891</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="N2" t="n">
         <v>30.9115297805728</v>
@@ -4349,31 +4349,31 @@
         <v>61.2109500605402</v>
       </c>
       <c r="Q2" t="n">
-        <v>51.15433024019471</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="R2" t="n">
-        <v>51.15433024019471</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="S2" t="n">
-        <v>51.15433024019471</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="T2" t="n">
-        <v>51.15433024019471</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="U2" t="n">
-        <v>51.15433024019471</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="V2" t="n">
-        <v>51.15433024019471</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="W2" t="n">
-        <v>51.15433024019471</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="X2" t="n">
-        <v>51.15433024019471</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="Y2" t="n">
-        <v>51.15433024019471</v>
+        <v>23.62703037176281</v>
       </c>
     </row>
     <row r="3">
@@ -4383,43 +4383,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.2109500605402</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="C3" t="n">
-        <v>61.2109500605402</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="D3" t="n">
-        <v>48.35028351804213</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="E3" t="n">
-        <v>32.89297289669359</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="F3" t="n">
-        <v>17.43566227534506</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="G3" t="n">
-        <v>1.978351653996518</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="H3" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I3" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J3" t="n">
         <v>1.224219001210804</v>
       </c>
       <c r="K3" t="n">
-        <v>15.7618196405891</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="L3" t="n">
-        <v>30.9115297805728</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="M3" t="n">
-        <v>30.9115297805728</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="N3" t="n">
-        <v>30.9115297805728</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O3" t="n">
         <v>46.0612399205565</v>
@@ -4434,25 +4434,25 @@
         <v>61.2109500605402</v>
       </c>
       <c r="S3" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="T3" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="U3" t="n">
-        <v>61.2109500605402</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="V3" t="n">
-        <v>61.2109500605402</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="W3" t="n">
-        <v>61.2109500605402</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="X3" t="n">
-        <v>61.2109500605402</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="Y3" t="n">
-        <v>61.2109500605402</v>
+        <v>16.68152962255934</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.59615086525642</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="C4" t="n">
-        <v>47.59615086525642</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D4" t="n">
-        <v>47.59615086525642</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E4" t="n">
-        <v>32.13884024390788</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F4" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G4" t="n">
         <v>1.224219001210804</v>
@@ -4495,10 +4495,10 @@
         <v>16.37392914119451</v>
       </c>
       <c r="M4" t="n">
-        <v>30.9115297805728</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="N4" t="n">
-        <v>46.0612399205565</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="O4" t="n">
         <v>61.2109500605402</v>
@@ -4507,31 +4507,31 @@
         <v>61.2109500605402</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="R4" t="n">
-        <v>61.2109500605402</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="S4" t="n">
-        <v>61.2109500605402</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="T4" t="n">
-        <v>61.2109500605402</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="U4" t="n">
-        <v>47.59615086525642</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="V4" t="n">
-        <v>47.59615086525642</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="W4" t="n">
-        <v>47.59615086525642</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="X4" t="n">
-        <v>47.59615086525642</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="Y4" t="n">
-        <v>47.59615086525642</v>
+        <v>1.224219001210804</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35.69701961884617</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="C5" t="n">
-        <v>35.69701961884617</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="D5" t="n">
-        <v>35.69701961884617</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="E5" t="n">
-        <v>35.69701961884617</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="F5" t="n">
-        <v>28.75151886964269</v>
+        <v>23.35082806863965</v>
       </c>
       <c r="G5" t="n">
-        <v>13.29420824829416</v>
+        <v>7.893517447291114</v>
       </c>
       <c r="H5" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I5" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J5" t="n">
         <v>1.224219001210804</v>
       </c>
       <c r="K5" t="n">
-        <v>16.37392914119451</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="L5" t="n">
-        <v>31.52363928117821</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="M5" t="n">
-        <v>46.6733494211619</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="N5" t="n">
-        <v>61.2109500605402</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O5" t="n">
         <v>61.2109500605402</v>
@@ -4586,31 +4586,31 @@
         <v>61.2109500605402</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="R5" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="S5" t="n">
-        <v>35.69701961884617</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="T5" t="n">
-        <v>35.69701961884617</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="U5" t="n">
-        <v>35.69701961884617</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="V5" t="n">
-        <v>35.69701961884617</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="W5" t="n">
-        <v>35.69701961884617</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="X5" t="n">
-        <v>35.69701961884617</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="Y5" t="n">
-        <v>35.69701961884617</v>
+        <v>30.29632881784312</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17.43566227534506</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="C6" t="n">
-        <v>17.43566227534506</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="D6" t="n">
-        <v>17.43566227534506</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E6" t="n">
-        <v>17.43566227534506</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F6" t="n">
-        <v>17.43566227534506</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G6" t="n">
-        <v>17.43566227534506</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H6" t="n">
-        <v>17.43566227534506</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I6" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J6" t="n">
         <v>1.224219001210804</v>
@@ -4659,37 +4659,37 @@
         <v>31.52363928117821</v>
       </c>
       <c r="O6" t="n">
-        <v>46.6733494211619</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="P6" t="n">
-        <v>61.2109500605402</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="Q6" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="R6" t="n">
+        <v>61.2109500605402</v>
+      </c>
+      <c r="S6" t="n">
+        <v>61.2109500605402</v>
+      </c>
+      <c r="T6" t="n">
         <v>45.75363943919166</v>
       </c>
-      <c r="S6" t="n">
-        <v>32.89297289669359</v>
-      </c>
-      <c r="T6" t="n">
-        <v>32.89297289669359</v>
-      </c>
       <c r="U6" t="n">
-        <v>32.89297289669359</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="V6" t="n">
-        <v>32.89297289669359</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="W6" t="n">
-        <v>32.89297289669359</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="X6" t="n">
-        <v>17.43566227534506</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="Y6" t="n">
-        <v>17.43566227534506</v>
+        <v>14.83901819649459</v>
       </c>
     </row>
     <row r="7">
@@ -4702,7 +4702,7 @@
         <v>16.68152962255934</v>
       </c>
       <c r="C7" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D7" t="n">
         <v>1.224219001210804</v>
@@ -4732,7 +4732,7 @@
         <v>16.37392914119451</v>
       </c>
       <c r="M7" t="n">
-        <v>31.52363928117821</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="N7" t="n">
         <v>46.0612399205565</v>
@@ -4750,25 +4750,25 @@
         <v>61.2109500605402</v>
       </c>
       <c r="S7" t="n">
-        <v>45.75363943919166</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="T7" t="n">
-        <v>30.29632881784312</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="U7" t="n">
-        <v>30.29632881784312</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="V7" t="n">
-        <v>30.29632881784312</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="W7" t="n">
-        <v>30.29632881784312</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="X7" t="n">
-        <v>30.29632881784312</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="Y7" t="n">
-        <v>30.29632881784312</v>
+        <v>32.13884024390788</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>92.38954941029624</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="C8" t="n">
-        <v>92.38954941029624</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="D8" t="n">
-        <v>92.38954941029624</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="E8" t="n">
-        <v>79.68686933990632</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="F8" t="n">
-        <v>53.80778732512771</v>
+        <v>17.898417984984</v>
       </c>
       <c r="G8" t="n">
-        <v>27.92870531034908</v>
+        <v>2.44110736363546</v>
       </c>
       <c r="H8" t="n">
-        <v>2.049623295570466</v>
+        <v>2.44110736363546</v>
       </c>
       <c r="I8" t="n">
         <v>2.049623295570466</v>
@@ -4805,49 +4805,49 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K8" t="n">
-        <v>27.41371157825499</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="L8" t="n">
-        <v>27.41371157825499</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="M8" t="n">
-        <v>27.41371157825499</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="N8" t="n">
-        <v>52.77779986093951</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O8" t="n">
-        <v>78.14188814362403</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P8" t="n">
         <v>102.4811647785233</v>
       </c>
       <c r="Q8" t="n">
-        <v>92.38954941029624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R8" t="n">
-        <v>92.38954941029624</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S8" t="n">
-        <v>92.38954941029624</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T8" t="n">
-        <v>92.38954941029624</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="U8" t="n">
-        <v>92.38954941029624</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="V8" t="n">
-        <v>92.38954941029624</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="W8" t="n">
-        <v>92.38954941029624</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="X8" t="n">
-        <v>92.38954941029624</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="Y8" t="n">
-        <v>92.38954941029624</v>
+        <v>24.84391873418747</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.80375594835618</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C9" t="n">
-        <v>2.80375594835618</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D9" t="n">
-        <v>2.80375594835618</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E9" t="n">
-        <v>2.80375594835618</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F9" t="n">
-        <v>2.80375594835618</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G9" t="n">
-        <v>2.80375594835618</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H9" t="n">
-        <v>2.80375594835618</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I9" t="n">
-        <v>2.80375594835618</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J9" t="n">
         <v>2.049623295570466</v>
       </c>
       <c r="K9" t="n">
+        <v>2.049623295570466</v>
+      </c>
+      <c r="L9" t="n">
         <v>27.41371157825499</v>
       </c>
-      <c r="L9" t="n">
-        <v>51.75298821315428</v>
-      </c>
       <c r="M9" t="n">
-        <v>51.75298821315428</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N9" t="n">
-        <v>51.75298821315428</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="O9" t="n">
-        <v>77.1170764958388</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="P9" t="n">
         <v>102.4811647785233</v>
@@ -4905,28 +4905,28 @@
         <v>102.4811647785233</v>
       </c>
       <c r="R9" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S9" t="n">
-        <v>76.6020827637447</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="T9" t="n">
-        <v>76.6020827637447</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="U9" t="n">
-        <v>50.72300074896609</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="V9" t="n">
-        <v>24.84391873418747</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W9" t="n">
-        <v>2.80375594835618</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X9" t="n">
-        <v>2.80375594835618</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.80375594835618</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>102.4811647785233</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C10" t="n">
-        <v>79.68686933990632</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D10" t="n">
-        <v>53.80778732512771</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E10" t="n">
-        <v>27.92870531034908</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F10" t="n">
         <v>2.049623295570466</v>
@@ -4978,34 +4978,34 @@
         <v>102.4811647785233</v>
       </c>
       <c r="P10" t="n">
-        <v>102.4811647785233</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="Q10" t="n">
-        <v>102.4811647785233</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="R10" t="n">
-        <v>102.4811647785233</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="S10" t="n">
-        <v>102.4811647785233</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="T10" t="n">
-        <v>102.4811647785233</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="U10" t="n">
-        <v>102.4811647785233</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="V10" t="n">
-        <v>102.4811647785233</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W10" t="n">
-        <v>102.4811647785233</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X10" t="n">
-        <v>102.4811647785233</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y10" t="n">
-        <v>102.4811647785233</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1915.502362907819</v>
+        <v>1585.018808135443</v>
       </c>
       <c r="C11" t="n">
-        <v>1725.986044303371</v>
+        <v>1585.018808135443</v>
       </c>
       <c r="D11" t="n">
-        <v>1410.702549185322</v>
+        <v>1269.735313017393</v>
       </c>
       <c r="E11" t="n">
-        <v>1067.896500075779</v>
+        <v>926.9292639078503</v>
       </c>
       <c r="F11" t="n">
-        <v>699.8927987748726</v>
+        <v>699.8927987748727</v>
       </c>
       <c r="G11" t="n">
-        <v>327.776994629077</v>
+        <v>327.7769946290771</v>
       </c>
       <c r="H11" t="n">
-        <v>72.91385718968347</v>
+        <v>72.91385718968351</v>
       </c>
       <c r="I11" t="n">
-        <v>72.91385718968347</v>
+        <v>72.91385718968351</v>
       </c>
       <c r="J11" t="n">
         <v>259.6669952901451</v>
@@ -5045,46 +5045,46 @@
         <v>590.3000567917998</v>
       </c>
       <c r="L11" t="n">
-        <v>1037.38136801776</v>
+        <v>1171.108923296638</v>
       </c>
       <c r="M11" t="n">
-        <v>1566.514907547031</v>
+        <v>1700.242462825909</v>
       </c>
       <c r="N11" t="n">
-        <v>2108.824189316802</v>
+        <v>2242.551744595681</v>
       </c>
       <c r="O11" t="n">
-        <v>2951.495600796007</v>
+        <v>2741.303760042704</v>
       </c>
       <c r="P11" t="n">
-        <v>3342.667906085393</v>
+        <v>3132.476065332089</v>
       </c>
       <c r="Q11" t="n">
-        <v>3588.249269990677</v>
+        <v>3588.249269990679</v>
       </c>
       <c r="R11" t="n">
-        <v>3645.692859484173</v>
+        <v>3645.692859484176</v>
       </c>
       <c r="S11" t="n">
-        <v>3577.802003436013</v>
+        <v>3577.802003436016</v>
       </c>
       <c r="T11" t="n">
-        <v>3414.694581442454</v>
+        <v>3414.694581442457</v>
       </c>
       <c r="U11" t="n">
-        <v>3204.144263606632</v>
+        <v>3204.144263606634</v>
       </c>
       <c r="V11" t="n">
-        <v>2916.063579751763</v>
+        <v>2916.063579751765</v>
       </c>
       <c r="W11" t="n">
-        <v>2606.27712797035</v>
+        <v>2606.277127970352</v>
       </c>
       <c r="X11" t="n">
-        <v>2606.27712797035</v>
+        <v>2275.793573197974</v>
       </c>
       <c r="Y11" t="n">
-        <v>2259.11999948324</v>
+        <v>1928.636444710863</v>
       </c>
     </row>
     <row r="12">
@@ -5112,25 +5112,25 @@
         <v>172.7978913523435</v>
       </c>
       <c r="H12" t="n">
-        <v>82.16393052324096</v>
+        <v>82.16393052324101</v>
       </c>
       <c r="I12" t="n">
-        <v>72.91385718968347</v>
+        <v>72.91385718968351</v>
       </c>
       <c r="J12" t="n">
-        <v>176.5598862660457</v>
+        <v>165.3248998982494</v>
       </c>
       <c r="K12" t="n">
-        <v>412.6599019942323</v>
+        <v>401.424915626436</v>
       </c>
       <c r="L12" t="n">
-        <v>776.4480508475663</v>
+        <v>765.21306447977</v>
       </c>
       <c r="M12" t="n">
-        <v>1220.328529953216</v>
+        <v>1209.093543585419</v>
       </c>
       <c r="N12" t="n">
-        <v>1690.365849448951</v>
+        <v>1679.130863081155</v>
       </c>
       <c r="O12" t="n">
         <v>2098.138372344748</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>678.729004582063</v>
+        <v>678.7290045820632</v>
       </c>
       <c r="C13" t="n">
-        <v>568.3072581751946</v>
+        <v>552.7750251428575</v>
       </c>
       <c r="D13" t="n">
-        <v>461.1728222515601</v>
+        <v>445.640589219223</v>
       </c>
       <c r="E13" t="n">
-        <v>356.2419321578683</v>
+        <v>340.7096991255311</v>
       </c>
       <c r="F13" t="n">
-        <v>252.3341881486592</v>
+        <v>236.801955116322</v>
       </c>
       <c r="G13" t="n">
-        <v>127.6020908066262</v>
+        <v>127.6020908066263</v>
       </c>
       <c r="H13" t="n">
-        <v>127.6020908066262</v>
+        <v>127.6020908066263</v>
       </c>
       <c r="I13" t="n">
-        <v>72.91385718968347</v>
+        <v>72.91385718968351</v>
       </c>
       <c r="J13" t="n">
         <v>159.3689572849396</v>
@@ -5206,10 +5206,10 @@
         <v>761.1937303403811</v>
       </c>
       <c r="M13" t="n">
-        <v>1145.716328884073</v>
+        <v>1145.716328884074</v>
       </c>
       <c r="N13" t="n">
-        <v>1527.532138423022</v>
+        <v>1527.532138423023</v>
       </c>
       <c r="O13" t="n">
         <v>1867.400427877225</v>
@@ -5221,28 +5221,28 @@
         <v>2259.572120962683</v>
       </c>
       <c r="R13" t="n">
-        <v>2212.208394843721</v>
+        <v>2212.208394843722</v>
       </c>
       <c r="S13" t="n">
-        <v>2063.304924324216</v>
+        <v>2063.304924324217</v>
       </c>
       <c r="T13" t="n">
         <v>1884.471528959144</v>
       </c>
       <c r="U13" t="n">
-        <v>1638.350240253191</v>
+        <v>1638.350240253192</v>
       </c>
       <c r="V13" t="n">
         <v>1426.647955536006</v>
       </c>
       <c r="W13" t="n">
-        <v>1180.212988987746</v>
+        <v>1180.212988987747</v>
       </c>
       <c r="X13" t="n">
-        <v>995.2056415784305</v>
+        <v>995.2056415784306</v>
       </c>
       <c r="Y13" t="n">
-        <v>817.3952659236015</v>
+        <v>817.3952659236018</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1863.459982019422</v>
+        <v>1585.018808135443</v>
       </c>
       <c r="C14" t="n">
-        <v>1537.479668567712</v>
+        <v>1585.018808135443</v>
       </c>
       <c r="D14" t="n">
-        <v>1222.196173449662</v>
+        <v>1410.702549185322</v>
       </c>
       <c r="E14" t="n">
-        <v>879.3901243401193</v>
+        <v>1067.896500075779</v>
       </c>
       <c r="F14" t="n">
-        <v>511.386423039213</v>
+        <v>699.8927987748725</v>
       </c>
       <c r="G14" t="n">
-        <v>139.2706188934174</v>
+        <v>327.776994629077</v>
       </c>
       <c r="H14" t="n">
-        <v>72.91385718968347</v>
+        <v>72.9138571896835</v>
       </c>
       <c r="I14" t="n">
-        <v>72.91385718968347</v>
+        <v>72.9138571896835</v>
       </c>
       <c r="J14" t="n">
         <v>259.6669952901451</v>
@@ -5291,37 +5291,37 @@
         <v>2108.824189316802</v>
       </c>
       <c r="O14" t="n">
-        <v>2607.576204763825</v>
+        <v>2951.495600796009</v>
       </c>
       <c r="P14" t="n">
-        <v>3317.329231142979</v>
+        <v>3342.667906085394</v>
       </c>
       <c r="Q14" t="n">
-        <v>3562.910595048263</v>
+        <v>3588.249269990678</v>
       </c>
       <c r="R14" t="n">
-        <v>3645.692859484173</v>
+        <v>3645.692859484175</v>
       </c>
       <c r="S14" t="n">
-        <v>3645.692859484173</v>
+        <v>3577.802003436015</v>
       </c>
       <c r="T14" t="n">
-        <v>3482.585437490614</v>
+        <v>3414.694581442456</v>
       </c>
       <c r="U14" t="n">
-        <v>3482.585437490614</v>
+        <v>3204.144263606634</v>
       </c>
       <c r="V14" t="n">
-        <v>3194.504753635745</v>
+        <v>2916.063579751765</v>
       </c>
       <c r="W14" t="n">
-        <v>2884.718301854332</v>
+        <v>2606.277127970352</v>
       </c>
       <c r="X14" t="n">
-        <v>2554.234747081953</v>
+        <v>2275.793573197973</v>
       </c>
       <c r="Y14" t="n">
-        <v>2207.077618594843</v>
+        <v>1928.636444710863</v>
       </c>
     </row>
     <row r="15">
@@ -5349,16 +5349,16 @@
         <v>172.7978913523435</v>
       </c>
       <c r="H15" t="n">
-        <v>82.16393052324096</v>
+        <v>82.16393052324099</v>
       </c>
       <c r="I15" t="n">
-        <v>72.91385718968347</v>
+        <v>72.9138571896835</v>
       </c>
       <c r="J15" t="n">
-        <v>165.3248998982493</v>
+        <v>165.3248998982494</v>
       </c>
       <c r="K15" t="n">
-        <v>401.424915626436</v>
+        <v>412.6599019942323</v>
       </c>
       <c r="L15" t="n">
         <v>776.4480508475663</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>797.5981481163251</v>
+        <v>678.7290045820635</v>
       </c>
       <c r="C16" t="n">
-        <v>671.6441686771195</v>
+        <v>552.7750251428579</v>
       </c>
       <c r="D16" t="n">
-        <v>564.5097327534849</v>
+        <v>460.6019887442747</v>
       </c>
       <c r="E16" t="n">
-        <v>459.578842659793</v>
+        <v>355.6710986505828</v>
       </c>
       <c r="F16" t="n">
-        <v>355.6710986505839</v>
+        <v>355.6710986505828</v>
       </c>
       <c r="G16" t="n">
-        <v>230.9390013085501</v>
+        <v>230.93900130855</v>
       </c>
       <c r="H16" t="n">
         <v>127.6020908066262</v>
       </c>
       <c r="I16" t="n">
-        <v>72.91385718968347</v>
+        <v>72.9138571896835</v>
       </c>
       <c r="J16" t="n">
-        <v>159.3689572849396</v>
+        <v>159.3689572849397</v>
       </c>
       <c r="K16" t="n">
-        <v>404.1775710909893</v>
+        <v>404.1775710909897</v>
       </c>
       <c r="L16" t="n">
-        <v>761.1937303403809</v>
+        <v>761.1937303403813</v>
       </c>
       <c r="M16" t="n">
-        <v>1145.716328884073</v>
+        <v>1145.716328884074</v>
       </c>
       <c r="N16" t="n">
-        <v>1527.532138423022</v>
+        <v>1527.532138423023</v>
       </c>
       <c r="O16" t="n">
-        <v>1867.400427877224</v>
+        <v>1867.400427877225</v>
       </c>
       <c r="P16" t="n">
         <v>2140.77583462707</v>
       </c>
       <c r="Q16" t="n">
-        <v>2259.572120962683</v>
+        <v>2259.572120962684</v>
       </c>
       <c r="R16" t="n">
         <v>2212.208394843722</v>
       </c>
       <c r="S16" t="n">
-        <v>2063.304924324216</v>
+        <v>2063.304924324217</v>
       </c>
       <c r="T16" t="n">
-        <v>1884.471528959144</v>
+        <v>1884.471528959145</v>
       </c>
       <c r="U16" t="n">
         <v>1638.350240253192</v>
       </c>
       <c r="V16" t="n">
-        <v>1545.517099070268</v>
+        <v>1426.647955536007</v>
       </c>
       <c r="W16" t="n">
-        <v>1299.082132522009</v>
+        <v>1180.212988987747</v>
       </c>
       <c r="X16" t="n">
-        <v>1114.074785112693</v>
+        <v>995.2056415784307</v>
       </c>
       <c r="Y16" t="n">
-        <v>936.2644094578636</v>
+        <v>817.3952659236019</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1725.986044303371</v>
+        <v>1585.018808135442</v>
       </c>
       <c r="C17" t="n">
-        <v>1725.986044303371</v>
+        <v>1259.038494683732</v>
       </c>
       <c r="D17" t="n">
-        <v>1410.702549185322</v>
+        <v>943.7549995656823</v>
       </c>
       <c r="E17" t="n">
-        <v>1067.896500075779</v>
+        <v>600.9489504561393</v>
       </c>
       <c r="F17" t="n">
-        <v>699.8927987748726</v>
+        <v>327.7769946290771</v>
       </c>
       <c r="G17" t="n">
-        <v>327.776994629077</v>
+        <v>327.7769946290771</v>
       </c>
       <c r="H17" t="n">
-        <v>72.91385718968348</v>
+        <v>72.9138571896835</v>
       </c>
       <c r="I17" t="n">
-        <v>72.91385718968348</v>
+        <v>72.9138571896835</v>
       </c>
       <c r="J17" t="n">
-        <v>282.6824328768748</v>
+        <v>427.0726443104982</v>
       </c>
       <c r="K17" t="n">
-        <v>934.2194528239827</v>
+        <v>757.7057058121529</v>
       </c>
       <c r="L17" t="n">
         <v>1381.300764049943</v>
@@ -5525,40 +5525,40 @@
         <v>1910.434303579214</v>
       </c>
       <c r="N17" t="n">
-        <v>2452.743585348985</v>
+        <v>2452.743585348986</v>
       </c>
       <c r="O17" t="n">
-        <v>2951.495600796008</v>
+        <v>2951.495600796009</v>
       </c>
       <c r="P17" t="n">
-        <v>3342.667906085393</v>
+        <v>3342.667906085394</v>
       </c>
       <c r="Q17" t="n">
-        <v>3588.249269990677</v>
+        <v>3588.249269990678</v>
       </c>
       <c r="R17" t="n">
-        <v>3645.692859484174</v>
+        <v>3645.692859484175</v>
       </c>
       <c r="S17" t="n">
-        <v>3577.802003436014</v>
+        <v>3577.802003436015</v>
       </c>
       <c r="T17" t="n">
-        <v>3414.694581442455</v>
+        <v>3414.694581442456</v>
       </c>
       <c r="U17" t="n">
         <v>3204.144263606634</v>
       </c>
       <c r="V17" t="n">
-        <v>3057.030815919693</v>
+        <v>2916.063579751764</v>
       </c>
       <c r="W17" t="n">
-        <v>2747.244364138281</v>
+        <v>2606.277127970352</v>
       </c>
       <c r="X17" t="n">
-        <v>2416.760809365902</v>
+        <v>2275.793573197973</v>
       </c>
       <c r="Y17" t="n">
-        <v>2069.603680878792</v>
+        <v>1928.636444710863</v>
       </c>
     </row>
     <row r="18">
@@ -5586,19 +5586,19 @@
         <v>172.7978913523435</v>
       </c>
       <c r="H18" t="n">
-        <v>82.16393052324098</v>
+        <v>82.16393052324099</v>
       </c>
       <c r="I18" t="n">
-        <v>72.91385718968348</v>
+        <v>72.9138571896835</v>
       </c>
       <c r="J18" t="n">
-        <v>165.3248998982493</v>
+        <v>165.3248998982494</v>
       </c>
       <c r="K18" t="n">
         <v>401.424915626436</v>
       </c>
       <c r="L18" t="n">
-        <v>765.2130644797699</v>
+        <v>765.21306447977</v>
       </c>
       <c r="M18" t="n">
         <v>1209.093543585419</v>
@@ -5610,7 +5610,7 @@
         <v>2086.903385976952</v>
       </c>
       <c r="P18" t="n">
-        <v>2394.843719218202</v>
+        <v>2406.078705585999</v>
       </c>
       <c r="Q18" t="n">
         <v>2562.009466878445</v>
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>694.2612376144004</v>
+        <v>678.7290045820624</v>
       </c>
       <c r="C19" t="n">
-        <v>568.3072581751949</v>
+        <v>552.7750251428567</v>
       </c>
       <c r="D19" t="n">
-        <v>461.1728222515604</v>
+        <v>445.6405892192222</v>
       </c>
       <c r="E19" t="n">
-        <v>356.2419321578685</v>
+        <v>340.7096991255303</v>
       </c>
       <c r="F19" t="n">
-        <v>252.3341881486593</v>
+        <v>300.9828650336403</v>
       </c>
       <c r="G19" t="n">
-        <v>127.6020908066263</v>
+        <v>176.2507676916074</v>
       </c>
       <c r="H19" t="n">
-        <v>127.6020908066263</v>
+        <v>72.9138571896835</v>
       </c>
       <c r="I19" t="n">
-        <v>72.91385718968348</v>
+        <v>72.9138571896835</v>
       </c>
       <c r="J19" t="n">
-        <v>159.3689572849396</v>
+        <v>159.3689572849397</v>
       </c>
       <c r="K19" t="n">
-        <v>404.1775710909897</v>
+        <v>404.1775710909894</v>
       </c>
       <c r="L19" t="n">
-        <v>761.1937303403813</v>
+        <v>761.193730340381</v>
       </c>
       <c r="M19" t="n">
-        <v>1145.716328884074</v>
+        <v>1145.716328884073</v>
       </c>
       <c r="N19" t="n">
-        <v>1527.532138423023</v>
+        <v>1527.532138423022</v>
       </c>
       <c r="O19" t="n">
         <v>1867.400427877225</v>
@@ -5692,31 +5692,31 @@
         <v>2140.77583462707</v>
       </c>
       <c r="Q19" t="n">
-        <v>2259.572120962684</v>
+        <v>2259.572120962683</v>
       </c>
       <c r="R19" t="n">
-        <v>2212.208394843722</v>
+        <v>2212.208394843721</v>
       </c>
       <c r="S19" t="n">
-        <v>2063.304924324217</v>
+        <v>2063.304924324216</v>
       </c>
       <c r="T19" t="n">
-        <v>1884.471528959145</v>
+        <v>1884.471528959144</v>
       </c>
       <c r="U19" t="n">
         <v>1638.350240253191</v>
       </c>
       <c r="V19" t="n">
-        <v>1442.180188568343</v>
+        <v>1426.647955536006</v>
       </c>
       <c r="W19" t="n">
-        <v>1195.745222020084</v>
+        <v>1180.212988987746</v>
       </c>
       <c r="X19" t="n">
-        <v>1010.737874610768</v>
+        <v>995.2056415784298</v>
       </c>
       <c r="Y19" t="n">
-        <v>832.927498955939</v>
+        <v>817.3952659236008</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2026.567404012982</v>
+        <v>1585.01880813544</v>
       </c>
       <c r="C20" t="n">
-        <v>1700.587090561272</v>
+        <v>1259.03849468373</v>
       </c>
       <c r="D20" t="n">
-        <v>1385.303595443223</v>
+        <v>1038.586745039526</v>
       </c>
       <c r="E20" t="n">
-        <v>1042.49754633368</v>
+        <v>695.7806959299832</v>
       </c>
       <c r="F20" t="n">
-        <v>674.4938450327732</v>
+        <v>327.776994629077</v>
       </c>
       <c r="G20" t="n">
-        <v>302.3780408869766</v>
+        <v>327.776994629077</v>
       </c>
       <c r="H20" t="n">
-        <v>72.91385718968348</v>
+        <v>72.91385718968345</v>
       </c>
       <c r="I20" t="n">
-        <v>72.91385718968348</v>
+        <v>72.91385718968345</v>
       </c>
       <c r="J20" t="n">
         <v>259.6669952901451</v>
@@ -5756,46 +5756,46 @@
         <v>590.3000567917998</v>
       </c>
       <c r="L20" t="n">
-        <v>1381.300764049943</v>
+        <v>1037.38136801776</v>
       </c>
       <c r="M20" t="n">
-        <v>1910.434303579214</v>
+        <v>1566.514907547031</v>
       </c>
       <c r="N20" t="n">
-        <v>2452.743585348985</v>
+        <v>2108.824189316802</v>
       </c>
       <c r="O20" t="n">
-        <v>2951.495600796008</v>
+        <v>2951.495600796007</v>
       </c>
       <c r="P20" t="n">
-        <v>3342.667906085393</v>
+        <v>3342.667906085392</v>
       </c>
       <c r="Q20" t="n">
-        <v>3588.249269990677</v>
+        <v>3588.249269990676</v>
       </c>
       <c r="R20" t="n">
-        <v>3645.692859484174</v>
+        <v>3645.692859484173</v>
       </c>
       <c r="S20" t="n">
-        <v>3645.692859484174</v>
+        <v>3577.802003436013</v>
       </c>
       <c r="T20" t="n">
-        <v>3645.692859484174</v>
+        <v>3414.694581442454</v>
       </c>
       <c r="U20" t="n">
-        <v>3645.692859484174</v>
+        <v>3204.144263606632</v>
       </c>
       <c r="V20" t="n">
-        <v>3357.612175629305</v>
+        <v>2916.063579751763</v>
       </c>
       <c r="W20" t="n">
-        <v>3047.825723847892</v>
+        <v>2606.27712797035</v>
       </c>
       <c r="X20" t="n">
-        <v>2717.342169075513</v>
+        <v>2275.793573197971</v>
       </c>
       <c r="Y20" t="n">
-        <v>2370.185040588402</v>
+        <v>1928.636444710861</v>
       </c>
     </row>
     <row r="21">
@@ -5805,46 +5805,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>938.3341178977447</v>
+        <v>938.3341178977445</v>
       </c>
       <c r="C21" t="n">
-        <v>763.8810886166177</v>
+        <v>763.8810886166175</v>
       </c>
       <c r="D21" t="n">
-        <v>614.9466789553665</v>
+        <v>614.9466789553662</v>
       </c>
       <c r="E21" t="n">
-        <v>455.7092239499109</v>
+        <v>455.7092239499108</v>
       </c>
       <c r="F21" t="n">
         <v>309.1746659767958</v>
       </c>
       <c r="G21" t="n">
-        <v>172.7978913523435</v>
+        <v>172.7978913523434</v>
       </c>
       <c r="H21" t="n">
-        <v>82.16393052324098</v>
+        <v>82.16393052324095</v>
       </c>
       <c r="I21" t="n">
-        <v>72.91385718968348</v>
+        <v>72.91385718968345</v>
       </c>
       <c r="J21" t="n">
-        <v>176.5598862660457</v>
+        <v>165.3248998982493</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6599019942323</v>
+        <v>401.424915626436</v>
       </c>
       <c r="L21" t="n">
-        <v>776.4480508475663</v>
+        <v>765.2130644797699</v>
       </c>
       <c r="M21" t="n">
-        <v>1220.328529953216</v>
+        <v>1209.093543585419</v>
       </c>
       <c r="N21" t="n">
-        <v>1690.365849448951</v>
+        <v>1679.130863081155</v>
       </c>
       <c r="O21" t="n">
-        <v>2098.138372344748</v>
+        <v>2086.903385976952</v>
       </c>
       <c r="P21" t="n">
         <v>2406.078705585999</v>
@@ -5862,7 +5862,7 @@
         <v>2239.619465349162</v>
       </c>
       <c r="U21" t="n">
-        <v>2011.550718848244</v>
+        <v>2011.550718848243</v>
       </c>
       <c r="V21" t="n">
         <v>1776.398610616501</v>
@@ -5871,10 +5871,10 @@
         <v>1522.161253888299</v>
       </c>
       <c r="X21" t="n">
-        <v>1314.309753682767</v>
+        <v>1314.309753682766</v>
       </c>
       <c r="Y21" t="n">
-        <v>1106.549454917813</v>
+        <v>1106.549454917812</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>678.7290045820629</v>
+        <v>678.7290045820633</v>
       </c>
       <c r="C22" t="n">
-        <v>552.7750251428572</v>
+        <v>552.7750251428577</v>
       </c>
       <c r="D22" t="n">
-        <v>459.5788426597921</v>
+        <v>445.6405892192232</v>
       </c>
       <c r="E22" t="n">
-        <v>459.5788426597921</v>
+        <v>445.6405892192232</v>
       </c>
       <c r="F22" t="n">
-        <v>355.671098650583</v>
+        <v>341.7328452100141</v>
       </c>
       <c r="G22" t="n">
-        <v>230.9390013085501</v>
+        <v>217.0007478679811</v>
       </c>
       <c r="H22" t="n">
         <v>127.6020908066262</v>
       </c>
       <c r="I22" t="n">
-        <v>72.91385718968348</v>
+        <v>72.91385718968345</v>
       </c>
       <c r="J22" t="n">
-        <v>159.3689572849397</v>
+        <v>159.3689572849396</v>
       </c>
       <c r="K22" t="n">
-        <v>404.1775710909895</v>
+        <v>404.1775710909894</v>
       </c>
       <c r="L22" t="n">
         <v>761.1937303403811</v>
@@ -5920,25 +5920,25 @@
         <v>1145.716328884074</v>
       </c>
       <c r="N22" t="n">
-        <v>1527.532138423023</v>
+        <v>1527.532138423022</v>
       </c>
       <c r="O22" t="n">
-        <v>1867.400427877225</v>
+        <v>1867.400427877224</v>
       </c>
       <c r="P22" t="n">
-        <v>2140.77583462707</v>
+        <v>2140.775834627069</v>
       </c>
       <c r="Q22" t="n">
         <v>2259.572120962683</v>
       </c>
       <c r="R22" t="n">
-        <v>2212.208394843722</v>
+        <v>2212.208394843721</v>
       </c>
       <c r="S22" t="n">
-        <v>2063.304924324217</v>
+        <v>2063.304924324216</v>
       </c>
       <c r="T22" t="n">
-        <v>1884.471528959145</v>
+        <v>1884.471528959144</v>
       </c>
       <c r="U22" t="n">
         <v>1638.350240253192</v>
@@ -5950,10 +5950,10 @@
         <v>1180.212988987747</v>
       </c>
       <c r="X22" t="n">
-        <v>995.2056415784301</v>
+        <v>995.2056415784307</v>
       </c>
       <c r="Y22" t="n">
-        <v>817.3952659236013</v>
+        <v>817.3952659236018</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2061.495899584054</v>
+        <v>2061.495899584055</v>
       </c>
       <c r="C23" t="n">
         <v>1735.515586132344</v>
@@ -5987,22 +5987,22 @@
         <v>82.44339901865575</v>
       </c>
       <c r="J23" t="n">
-        <v>269.1965371191174</v>
+        <v>436.6021861394704</v>
       </c>
       <c r="K23" t="n">
-        <v>920.7335570662252</v>
+        <v>767.2352476411252</v>
       </c>
       <c r="L23" t="n">
-        <v>1367.814868292185</v>
+        <v>1214.316558867085</v>
       </c>
       <c r="M23" t="n">
-        <v>1896.948407821456</v>
+        <v>1743.450098396356</v>
       </c>
       <c r="N23" t="n">
-        <v>2439.257689591228</v>
+        <v>2610.63995570783</v>
       </c>
       <c r="O23" t="n">
-        <v>3315.001884488368</v>
+        <v>3109.391971154853</v>
       </c>
       <c r="P23" t="n">
         <v>3819.144997534007</v>
@@ -6026,7 +6026,7 @@
         <v>3392.540671200377</v>
       </c>
       <c r="W23" t="n">
-        <v>3082.754219418964</v>
+        <v>3082.754219418965</v>
       </c>
       <c r="X23" t="n">
         <v>2752.270664646586</v>
@@ -6066,25 +6066,25 @@
         <v>82.44339901865575</v>
       </c>
       <c r="J24" t="n">
-        <v>186.0894280950181</v>
+        <v>174.8544417272216</v>
       </c>
       <c r="K24" t="n">
-        <v>422.1894438232048</v>
+        <v>410.9544574554083</v>
       </c>
       <c r="L24" t="n">
-        <v>785.9775926765387</v>
+        <v>774.7426063087422</v>
       </c>
       <c r="M24" t="n">
-        <v>1229.858071782188</v>
+        <v>1218.623085414392</v>
       </c>
       <c r="N24" t="n">
-        <v>1699.895391277923</v>
+        <v>1688.660404910127</v>
       </c>
       <c r="O24" t="n">
-        <v>2107.667914173721</v>
+        <v>2096.432927805924</v>
       </c>
       <c r="P24" t="n">
-        <v>2415.608247414971</v>
+        <v>2404.373261047175</v>
       </c>
       <c r="Q24" t="n">
         <v>2571.539008707417</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>688.2585464110349</v>
+        <v>688.2585464110351</v>
       </c>
       <c r="C25" t="n">
-        <v>562.3045669718292</v>
+        <v>562.3045669718294</v>
       </c>
       <c r="D25" t="n">
-        <v>455.1701310481948</v>
+        <v>455.1701310481949</v>
       </c>
       <c r="E25" t="n">
-        <v>455.1701310481948</v>
+        <v>414.4201508718218</v>
       </c>
       <c r="F25" t="n">
-        <v>351.2623870389857</v>
+        <v>310.5124068626126</v>
       </c>
       <c r="G25" t="n">
-        <v>226.5302896969528</v>
+        <v>185.7803095205797</v>
       </c>
       <c r="H25" t="n">
-        <v>137.1316326355985</v>
+        <v>82.44339901865575</v>
       </c>
       <c r="I25" t="n">
         <v>82.44339901865575</v>
       </c>
       <c r="J25" t="n">
-        <v>168.8984991139116</v>
+        <v>168.8984991139115</v>
       </c>
       <c r="K25" t="n">
-        <v>413.7071129199616</v>
+        <v>413.7071129199614</v>
       </c>
       <c r="L25" t="n">
         <v>770.7232721693529</v>
@@ -6160,10 +6160,10 @@
         <v>1537.061680251994</v>
       </c>
       <c r="O25" t="n">
-        <v>1876.929969706197</v>
+        <v>1876.929969706196</v>
       </c>
       <c r="P25" t="n">
-        <v>2150.305376456042</v>
+        <v>2150.305376456041</v>
       </c>
       <c r="Q25" t="n">
         <v>2269.101662791655</v>
@@ -6190,7 +6190,7 @@
         <v>1004.735183407403</v>
       </c>
       <c r="Y25" t="n">
-        <v>826.9248077525733</v>
+        <v>826.9248077525735</v>
       </c>
     </row>
     <row r="26">
@@ -6212,49 +6212,49 @@
         <v>1262.512673254057</v>
       </c>
       <c r="F26" t="n">
-        <v>851.5267684644491</v>
+        <v>851.526768464449</v>
       </c>
       <c r="G26" t="n">
         <v>436.4287608299521</v>
       </c>
       <c r="H26" t="n">
-        <v>138.5834199018574</v>
+        <v>138.5834199018573</v>
       </c>
       <c r="I26" t="n">
-        <v>95.60121641315612</v>
+        <v>95.60121641315611</v>
       </c>
       <c r="J26" t="n">
         <v>449.7600035339708</v>
       </c>
       <c r="K26" t="n">
-        <v>780.3930650356256</v>
+        <v>1101.297023481079</v>
       </c>
       <c r="L26" t="n">
-        <v>1227.474376261586</v>
+        <v>1961.862937111985</v>
       </c>
       <c r="M26" t="n">
-        <v>2201.626313948761</v>
+        <v>2490.996476641255</v>
       </c>
       <c r="N26" t="n">
-        <v>3176.909050886396</v>
+        <v>3033.305758411027</v>
       </c>
       <c r="O26" t="n">
-        <v>3675.66106633342</v>
+        <v>3909.049953308168</v>
       </c>
       <c r="P26" t="n">
-        <v>4201.784770831468</v>
+        <v>4411.976611584772</v>
       </c>
       <c r="Q26" t="n">
-        <v>4657.557975490057</v>
+        <v>4657.557975490056</v>
       </c>
       <c r="R26" t="n">
-        <v>4780.060820657806</v>
+        <v>4780.060820657805</v>
       </c>
       <c r="S26" t="n">
-        <v>4669.187761120945</v>
+        <v>4669.187761120944</v>
       </c>
       <c r="T26" t="n">
-        <v>4463.098135638685</v>
+        <v>4463.098135638684</v>
       </c>
       <c r="U26" t="n">
         <v>4209.565614314161</v>
@@ -6263,7 +6263,7 @@
         <v>3878.502726970591</v>
       </c>
       <c r="W26" t="n">
-        <v>3525.734071700477</v>
+        <v>3525.734071700476</v>
       </c>
       <c r="X26" t="n">
         <v>3152.268313439397</v>
@@ -6300,19 +6300,19 @@
         <v>104.8512897467136</v>
       </c>
       <c r="I27" t="n">
-        <v>95.60121641315612</v>
+        <v>95.60121641315611</v>
       </c>
       <c r="J27" t="n">
-        <v>199.2472454895185</v>
+        <v>188.012259121722</v>
       </c>
       <c r="K27" t="n">
-        <v>435.3472612177052</v>
+        <v>424.1122748499086</v>
       </c>
       <c r="L27" t="n">
-        <v>799.1354100710391</v>
+        <v>787.9004237032425</v>
       </c>
       <c r="M27" t="n">
-        <v>1243.015889176688</v>
+        <v>1231.780902808892</v>
       </c>
       <c r="N27" t="n">
         <v>1713.053208672424</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>432.2517001717972</v>
+        <v>243.5143099955492</v>
       </c>
       <c r="C28" t="n">
-        <v>263.3155172438903</v>
+        <v>243.5143099955492</v>
       </c>
       <c r="D28" t="n">
-        <v>263.3155172438903</v>
+        <v>243.5143099955492</v>
       </c>
       <c r="E28" t="n">
-        <v>263.3155172438903</v>
+        <v>95.60121641315611</v>
       </c>
       <c r="F28" t="n">
-        <v>263.3155172438903</v>
+        <v>95.60121641315611</v>
       </c>
       <c r="G28" t="n">
-        <v>95.60121641315612</v>
+        <v>95.60121641315611</v>
       </c>
       <c r="H28" t="n">
-        <v>95.60121641315612</v>
+        <v>95.60121641315611</v>
       </c>
       <c r="I28" t="n">
-        <v>95.60121641315612</v>
+        <v>95.60121641315611</v>
       </c>
       <c r="J28" t="n">
         <v>139.9294588691362</v>
       </c>
       <c r="K28" t="n">
-        <v>342.61121503591</v>
+        <v>342.6112150359099</v>
       </c>
       <c r="L28" t="n">
-        <v>657.5005166460255</v>
+        <v>657.5005166460254</v>
       </c>
       <c r="M28" t="n">
-        <v>999.896257550442</v>
+        <v>999.8962575504418</v>
       </c>
       <c r="N28" t="n">
-        <v>1339.585209450115</v>
+        <v>1339.585209450114</v>
       </c>
       <c r="O28" t="n">
-        <v>1637.326641265041</v>
+        <v>1637.32664126504</v>
       </c>
       <c r="P28" t="n">
         <v>1868.57519037561</v>
@@ -6406,28 +6406,28 @@
         <v>1945.244619071947</v>
       </c>
       <c r="R28" t="n">
-        <v>1854.898689464285</v>
+        <v>1854.898689464284</v>
       </c>
       <c r="S28" t="n">
         <v>1663.013015456078</v>
       </c>
       <c r="T28" t="n">
-        <v>1663.013015456078</v>
+        <v>1441.197416602304</v>
       </c>
       <c r="U28" t="n">
-        <v>1373.909523261425</v>
+        <v>1197.253983966654</v>
       </c>
       <c r="V28" t="n">
-        <v>1119.225035055538</v>
+        <v>942.5694957607668</v>
       </c>
       <c r="W28" t="n">
-        <v>841.8897159000544</v>
+        <v>653.1523257238063</v>
       </c>
       <c r="X28" t="n">
-        <v>613.9001650020368</v>
+        <v>425.1627748257889</v>
       </c>
       <c r="Y28" t="n">
-        <v>613.9001650020368</v>
+        <v>425.1627748257889</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6437,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2375.529141399463</v>
+        <v>2375.529141399462</v>
       </c>
       <c r="C29" t="n">
-        <v>2006.566624459051</v>
+        <v>2006.56662445905</v>
       </c>
       <c r="D29" t="n">
-        <v>1648.300925852301</v>
+        <v>1648.3009258523</v>
       </c>
       <c r="E29" t="n">
-        <v>1262.512673254057</v>
+        <v>1262.512673254056</v>
       </c>
       <c r="F29" t="n">
-        <v>851.5267684644491</v>
+        <v>851.5267684644487</v>
       </c>
       <c r="G29" t="n">
-        <v>436.4287608299521</v>
+        <v>436.4287608299519</v>
       </c>
       <c r="H29" t="n">
-        <v>138.5834199018574</v>
+        <v>138.5834199018578</v>
       </c>
       <c r="I29" t="n">
         <v>95.60121641315612</v>
       </c>
       <c r="J29" t="n">
-        <v>282.3543545136177</v>
+        <v>449.7600035339708</v>
       </c>
       <c r="K29" t="n">
-        <v>612.9874160152724</v>
+        <v>1101.297023481079</v>
       </c>
       <c r="L29" t="n">
-        <v>1473.553329646178</v>
+        <v>1687.01035030165</v>
       </c>
       <c r="M29" t="n">
-        <v>2447.705267333353</v>
+        <v>2661.162287988825</v>
       </c>
       <c r="N29" t="n">
-        <v>3422.988004270989</v>
+        <v>3203.471569758597</v>
       </c>
       <c r="O29" t="n">
-        <v>4085.86356196964</v>
+        <v>3702.22358520562</v>
       </c>
       <c r="P29" t="n">
-        <v>4477.035867259026</v>
+        <v>4411.976611584773</v>
       </c>
       <c r="Q29" t="n">
-        <v>4722.617231164309</v>
+        <v>4657.557975490057</v>
       </c>
       <c r="R29" t="n">
         <v>4780.060820657806</v>
@@ -6491,22 +6491,22 @@
         <v>4669.187761120945</v>
       </c>
       <c r="T29" t="n">
-        <v>4463.098135638685</v>
+        <v>4463.098135638684</v>
       </c>
       <c r="U29" t="n">
-        <v>4209.565614314161</v>
+        <v>4209.56561431416</v>
       </c>
       <c r="V29" t="n">
-        <v>3878.502726970591</v>
+        <v>3878.50272697059</v>
       </c>
       <c r="W29" t="n">
-        <v>3525.734071700476</v>
+        <v>3525.734071700475</v>
       </c>
       <c r="X29" t="n">
         <v>3152.268313439396</v>
       </c>
       <c r="Y29" t="n">
-        <v>2762.128981463585</v>
+        <v>2762.128981463584</v>
       </c>
     </row>
     <row r="30">
@@ -6561,7 +6561,7 @@
         <v>2417.531078441675</v>
       </c>
       <c r="Q30" t="n">
-        <v>2584.696826101918</v>
+        <v>2573.461839734121</v>
       </c>
       <c r="R30" t="n">
         <v>2584.696826101918</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>295.8971517986961</v>
+        <v>448.6273061602164</v>
       </c>
       <c r="C31" t="n">
-        <v>126.9609688707892</v>
+        <v>448.6273061602164</v>
       </c>
       <c r="D31" t="n">
-        <v>95.60121641315612</v>
+        <v>298.5106667478807</v>
       </c>
       <c r="E31" t="n">
-        <v>95.60121641315612</v>
+        <v>150.5975731654876</v>
       </c>
       <c r="F31" t="n">
-        <v>95.60121641315612</v>
+        <v>150.5975731654876</v>
       </c>
       <c r="G31" t="n">
-        <v>95.60121641315612</v>
+        <v>150.5975731654876</v>
       </c>
       <c r="H31" t="n">
         <v>95.60121641315612</v>
@@ -6622,7 +6622,7 @@
         <v>139.9294588691362</v>
       </c>
       <c r="K31" t="n">
-        <v>342.61121503591</v>
+        <v>342.6112150359102</v>
       </c>
       <c r="L31" t="n">
         <v>657.5005166460255</v>
@@ -6643,28 +6643,28 @@
         <v>1945.244619071947</v>
       </c>
       <c r="R31" t="n">
-        <v>1945.244619071947</v>
+        <v>1854.898689464284</v>
       </c>
       <c r="S31" t="n">
-        <v>1753.358945063741</v>
+        <v>1663.013015456078</v>
       </c>
       <c r="T31" t="n">
-        <v>1531.543346209968</v>
+        <v>1441.197416602305</v>
       </c>
       <c r="U31" t="n">
-        <v>1242.439854015314</v>
+        <v>1152.093924407651</v>
       </c>
       <c r="V31" t="n">
-        <v>987.755365809427</v>
+        <v>897.4094362017639</v>
       </c>
       <c r="W31" t="n">
-        <v>698.338195772466</v>
+        <v>897.4094362017639</v>
       </c>
       <c r="X31" t="n">
-        <v>698.338195772466</v>
+        <v>669.4198853037466</v>
       </c>
       <c r="Y31" t="n">
-        <v>477.5456166289358</v>
+        <v>448.6273061602164</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6686,10 @@
         <v>1250.901986180064</v>
       </c>
       <c r="F32" t="n">
-        <v>842.6124020853645</v>
+        <v>842.6124020853646</v>
       </c>
       <c r="G32" t="n">
-        <v>430.2107151457758</v>
+        <v>430.2107151457759</v>
       </c>
       <c r="H32" t="n">
         <v>135.0616949125894</v>
@@ -6701,19 +6701,19 @@
         <v>448.9345992396111</v>
       </c>
       <c r="K32" t="n">
-        <v>1100.471619186719</v>
+        <v>930.0555252440511</v>
       </c>
       <c r="L32" t="n">
-        <v>1547.552930412679</v>
+        <v>1377.136836470011</v>
       </c>
       <c r="M32" t="n">
-        <v>2076.68646994195</v>
+        <v>2351.288774157186</v>
       </c>
       <c r="N32" t="n">
-        <v>2618.995751711721</v>
+        <v>2893.598055926958</v>
       </c>
       <c r="O32" t="n">
-        <v>3450.761529734331</v>
+        <v>3769.342250824099</v>
       </c>
       <c r="P32" t="n">
         <v>4160.514556113484</v>
@@ -6777,25 +6777,25 @@
         <v>94.77581211879645</v>
       </c>
       <c r="J33" t="n">
-        <v>198.4218411951586</v>
+        <v>187.1868548273623</v>
       </c>
       <c r="K33" t="n">
-        <v>434.5218569233452</v>
+        <v>423.2868705555489</v>
       </c>
       <c r="L33" t="n">
-        <v>798.3100057766792</v>
+        <v>787.0750194088829</v>
       </c>
       <c r="M33" t="n">
-        <v>1242.190484882329</v>
+        <v>1230.955498514532</v>
       </c>
       <c r="N33" t="n">
-        <v>1712.227804378064</v>
+        <v>1700.992818010268</v>
       </c>
       <c r="O33" t="n">
-        <v>2120.000327273861</v>
+        <v>2108.765340906065</v>
       </c>
       <c r="P33" t="n">
-        <v>2427.940660515112</v>
+        <v>2416.705674147315</v>
       </c>
       <c r="Q33" t="n">
         <v>2583.871421807558</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>94.77581211879645</v>
+        <v>406.23244723928</v>
       </c>
       <c r="C34" t="n">
-        <v>94.77581211879645</v>
+        <v>239.9925850062813</v>
       </c>
       <c r="D34" t="n">
-        <v>94.77581211879645</v>
+        <v>239.9925850062813</v>
       </c>
       <c r="E34" t="n">
         <v>94.77581211879645</v>
@@ -6856,7 +6856,7 @@
         <v>94.77581211879645</v>
       </c>
       <c r="J34" t="n">
-        <v>141.746718487856</v>
+        <v>141.7467184878561</v>
       </c>
       <c r="K34" t="n">
         <v>347.0711385677094</v>
@@ -6880,28 +6880,28 @@
         <v>1965.560526082224</v>
       </c>
       <c r="R34" t="n">
-        <v>1950.542264730799</v>
+        <v>1965.560526082224</v>
       </c>
       <c r="S34" t="n">
-        <v>1761.352911417501</v>
+        <v>1965.560526082224</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.233633258636</v>
+        <v>1746.441247923359</v>
       </c>
       <c r="U34" t="n">
-        <v>1255.82646175889</v>
+        <v>1460.034076423613</v>
       </c>
       <c r="V34" t="n">
-        <v>1003.838294247911</v>
+        <v>1208.045908912635</v>
       </c>
       <c r="W34" t="n">
-        <v>717.117444905859</v>
+        <v>921.3250595705822</v>
       </c>
       <c r="X34" t="n">
-        <v>491.8242147027497</v>
+        <v>696.0318293674732</v>
       </c>
       <c r="Y34" t="n">
-        <v>273.7279562541279</v>
+        <v>585.1845913746115</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2030.155614289772</v>
+        <v>2030.155614289771</v>
       </c>
       <c r="C35" t="n">
-        <v>1709.161255316697</v>
+        <v>1709.161255316696</v>
       </c>
       <c r="D35" t="n">
         <v>1398.863714677283</v>
@@ -6923,7 +6923,7 @@
         <v>1061.043620046376</v>
       </c>
       <c r="F35" t="n">
-        <v>698.0258732241059</v>
+        <v>698.0258732241055</v>
       </c>
       <c r="G35" t="n">
         <v>330.896023556946</v>
@@ -6935,28 +6935,28 @@
         <v>81.01884059618835</v>
       </c>
       <c r="J35" t="n">
-        <v>435.177627717003</v>
+        <v>267.77197869665</v>
       </c>
       <c r="K35" t="n">
-        <v>765.8106892186577</v>
+        <v>598.4050401983047</v>
       </c>
       <c r="L35" t="n">
-        <v>1212.892000444618</v>
+        <v>1045.486351424265</v>
       </c>
       <c r="M35" t="n">
-        <v>1742.025539973888</v>
+        <v>1574.619890953536</v>
       </c>
       <c r="N35" t="n">
-        <v>2284.33482174366</v>
+        <v>2549.902627891172</v>
       </c>
       <c r="O35" t="n">
-        <v>2783.086837190683</v>
+        <v>3356.744771121251</v>
       </c>
       <c r="P35" t="n">
-        <v>3492.839863569837</v>
+        <v>3747.917076410637</v>
       </c>
       <c r="Q35" t="n">
-        <v>3928.439184641668</v>
+        <v>3993.498440315921</v>
       </c>
       <c r="R35" t="n">
         <v>4050.942029809417</v>
@@ -7029,10 +7029,10 @@
         <v>1687.23584648766</v>
       </c>
       <c r="O36" t="n">
-        <v>2095.008369383457</v>
+        <v>2106.243355751253</v>
       </c>
       <c r="P36" t="n">
-        <v>2402.948702624707</v>
+        <v>2414.183688992503</v>
       </c>
       <c r="Q36" t="n">
         <v>2570.11445028495</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>770.8014501723786</v>
+        <v>770.8014501723785</v>
       </c>
       <c r="C37" t="n">
-        <v>649.8334252118088</v>
+        <v>649.8334252118087</v>
       </c>
       <c r="D37" t="n">
-        <v>547.6849437668102</v>
+        <v>547.6849437668101</v>
       </c>
       <c r="E37" t="n">
-        <v>447.7400081517542</v>
+        <v>447.7400081517541</v>
       </c>
       <c r="F37" t="n">
-        <v>348.8182186211809</v>
+        <v>348.8182186211808</v>
       </c>
       <c r="G37" t="n">
-        <v>229.0720757577839</v>
+        <v>229.0720757577838</v>
       </c>
       <c r="H37" t="n">
-        <v>130.7211197344953</v>
+        <v>130.7211197344962</v>
       </c>
       <c r="I37" t="n">
         <v>81.01884059618835</v>
       </c>
       <c r="J37" t="n">
-        <v>172.3606746759555</v>
+        <v>172.3606746759554</v>
       </c>
       <c r="K37" t="n">
         <v>422.0560224665164</v>
@@ -7102,7 +7102,7 @@
         <v>783.958915700419</v>
       </c>
       <c r="M37" t="n">
-        <v>1173.368248228623</v>
+        <v>1173.368248228622</v>
       </c>
       <c r="N37" t="n">
         <v>1560.070791752082</v>
@@ -7123,7 +7123,7 @@
         <v>2120.475688564081</v>
       </c>
       <c r="T37" t="n">
-        <v>1946.628247677645</v>
+        <v>1946.628247677644</v>
       </c>
       <c r="U37" t="n">
         <v>1705.492913450328</v>
@@ -7132,13 +7132,13 @@
         <v>1498.776583211778</v>
       </c>
       <c r="W37" t="n">
-        <v>1257.327571142155</v>
+        <v>1257.327571142154</v>
       </c>
       <c r="X37" t="n">
         <v>1077.306178211474</v>
       </c>
       <c r="Y37" t="n">
-        <v>904.4817570352812</v>
+        <v>904.4817570352811</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1061.043620046376</v>
       </c>
       <c r="F38" t="n">
-        <v>698.025873224106</v>
+        <v>698.0258732241059</v>
       </c>
       <c r="G38" t="n">
         <v>330.896023556946</v>
@@ -7172,28 +7172,28 @@
         <v>81.01884059618835</v>
       </c>
       <c r="J38" t="n">
-        <v>435.1776277170029</v>
+        <v>267.7719786966499</v>
       </c>
       <c r="K38" t="n">
-        <v>1086.714647664111</v>
+        <v>598.4050401983045</v>
       </c>
       <c r="L38" t="n">
-        <v>1721.490678700934</v>
+        <v>1353.576479207323</v>
       </c>
       <c r="M38" t="n">
-        <v>2250.624218230205</v>
+        <v>1882.710018736593</v>
       </c>
       <c r="N38" t="n">
-        <v>2792.933499999976</v>
+        <v>2857.992755674229</v>
       </c>
       <c r="O38" t="n">
-        <v>3291.685515446999</v>
+        <v>3356.744771121252</v>
       </c>
       <c r="P38" t="n">
-        <v>3682.857820736384</v>
+        <v>3747.917076410637</v>
       </c>
       <c r="Q38" t="n">
-        <v>3928.439184641668</v>
+        <v>3993.498440315921</v>
       </c>
       <c r="R38" t="n">
         <v>4050.942029809417</v>
@@ -7217,7 +7217,7 @@
         <v>2710.958470395031</v>
       </c>
       <c r="Y38" t="n">
-        <v>2368.787296386556</v>
+        <v>2368.787296386557</v>
       </c>
     </row>
     <row r="39">
@@ -7254,22 +7254,22 @@
         <v>173.4298833047542</v>
       </c>
       <c r="K39" t="n">
-        <v>409.5298990329408</v>
+        <v>420.7648854007379</v>
       </c>
       <c r="L39" t="n">
-        <v>773.3180478862746</v>
+        <v>784.5530342540717</v>
       </c>
       <c r="M39" t="n">
-        <v>1217.198526991924</v>
+        <v>1228.433513359721</v>
       </c>
       <c r="N39" t="n">
-        <v>1687.235846487659</v>
+        <v>1698.470832855456</v>
       </c>
       <c r="O39" t="n">
-        <v>2095.008369383457</v>
+        <v>2106.243355751254</v>
       </c>
       <c r="P39" t="n">
-        <v>2402.948702624707</v>
+        <v>2414.183688992504</v>
       </c>
       <c r="Q39" t="n">
         <v>2570.11445028495</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>770.8014501723778</v>
+        <v>770.8014501723781</v>
       </c>
       <c r="C40" t="n">
-        <v>649.833425211808</v>
+        <v>649.8334252118083</v>
       </c>
       <c r="D40" t="n">
-        <v>547.6849437668094</v>
+        <v>547.6849437668096</v>
       </c>
       <c r="E40" t="n">
-        <v>447.7400081517534</v>
+        <v>447.7400081517536</v>
       </c>
       <c r="F40" t="n">
-        <v>348.8182186211801</v>
+        <v>348.8182186211803</v>
       </c>
       <c r="G40" t="n">
-        <v>229.0720757577831</v>
+        <v>229.0720757577833</v>
       </c>
       <c r="H40" t="n">
         <v>130.7211197344953</v>
@@ -7333,13 +7333,13 @@
         <v>172.3606746759555</v>
       </c>
       <c r="K40" t="n">
-        <v>422.0560224665162</v>
+        <v>422.0560224665164</v>
       </c>
       <c r="L40" t="n">
-        <v>783.9589157004187</v>
+        <v>783.9589157004189</v>
       </c>
       <c r="M40" t="n">
-        <v>1173.368248228622</v>
+        <v>1173.368248228623</v>
       </c>
       <c r="N40" t="n">
         <v>1560.070791752082</v>
@@ -7348,16 +7348,16 @@
         <v>1904.825815190795</v>
       </c>
       <c r="P40" t="n">
-        <v>2183.087955925151</v>
+        <v>2183.087955925152</v>
       </c>
       <c r="Q40" t="n">
         <v>2306.770976245276</v>
       </c>
       <c r="R40" t="n">
-        <v>2264.393204604949</v>
+        <v>2264.39320460495</v>
       </c>
       <c r="S40" t="n">
-        <v>2120.47568856408</v>
+        <v>2120.475688564081</v>
       </c>
       <c r="T40" t="n">
         <v>1946.628247677644</v>
@@ -7366,16 +7366,16 @@
         <v>1705.492913450327</v>
       </c>
       <c r="V40" t="n">
-        <v>1498.776583211777</v>
+        <v>1498.776583211778</v>
       </c>
       <c r="W40" t="n">
         <v>1257.327571142154</v>
       </c>
       <c r="X40" t="n">
-        <v>1077.306178211473</v>
+        <v>1077.306178211474</v>
       </c>
       <c r="Y40" t="n">
-        <v>904.4817570352805</v>
+        <v>904.4817570352807</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2030.155614289771</v>
       </c>
       <c r="C41" t="n">
-        <v>1709.161255316696</v>
+        <v>1709.161255316697</v>
       </c>
       <c r="D41" t="n">
         <v>1398.863714677283</v>
@@ -7397,7 +7397,7 @@
         <v>1061.043620046376</v>
       </c>
       <c r="F41" t="n">
-        <v>698.0258732241055</v>
+        <v>698.0258732241058</v>
       </c>
       <c r="G41" t="n">
         <v>330.896023556946</v>
@@ -7409,28 +7409,28 @@
         <v>81.01884059618835</v>
       </c>
       <c r="J41" t="n">
-        <v>435.177627717003</v>
+        <v>267.77197869665</v>
       </c>
       <c r="K41" t="n">
-        <v>765.8106892186577</v>
+        <v>598.4050401983047</v>
       </c>
       <c r="L41" t="n">
-        <v>1212.892000444618</v>
+        <v>1045.486351424265</v>
       </c>
       <c r="M41" t="n">
-        <v>1742.025539973888</v>
+        <v>1574.619890953536</v>
       </c>
       <c r="N41" t="n">
-        <v>2284.33482174366</v>
+        <v>2162.419855134342</v>
       </c>
       <c r="O41" t="n">
-        <v>2783.086837190683</v>
+        <v>3038.164050031483</v>
       </c>
       <c r="P41" t="n">
-        <v>3472.665979983079</v>
+        <v>3747.917076410637</v>
       </c>
       <c r="Q41" t="n">
-        <v>3928.439184641668</v>
+        <v>3993.498440315921</v>
       </c>
       <c r="R41" t="n">
         <v>4050.942029809417</v>
@@ -7442,7 +7442,7 @@
         <v>3829.91566072497</v>
       </c>
       <c r="U41" t="n">
-        <v>3624.351297367784</v>
+        <v>3624.351297367783</v>
       </c>
       <c r="V41" t="n">
         <v>3341.25656799155</v>
@@ -7491,10 +7491,10 @@
         <v>173.4298833047542</v>
       </c>
       <c r="K42" t="n">
-        <v>420.7648854007371</v>
+        <v>409.5298990329409</v>
       </c>
       <c r="L42" t="n">
-        <v>784.553034254071</v>
+        <v>773.3180478862748</v>
       </c>
       <c r="M42" t="n">
         <v>1228.43351335972</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>770.8014501723779</v>
+        <v>770.8014501723786</v>
       </c>
       <c r="C43" t="n">
-        <v>649.8334252118082</v>
+        <v>649.8334252118088</v>
       </c>
       <c r="D43" t="n">
         <v>547.6849437668095</v>
       </c>
       <c r="E43" t="n">
-        <v>447.7400081517534</v>
+        <v>447.7400081517536</v>
       </c>
       <c r="F43" t="n">
-        <v>348.8182186211802</v>
+        <v>348.8182186211803</v>
       </c>
       <c r="G43" t="n">
-        <v>229.0720757577831</v>
+        <v>229.0720757577832</v>
       </c>
       <c r="H43" t="n">
         <v>130.7211197344953</v>
@@ -7567,13 +7567,13 @@
         <v>81.01884059618835</v>
       </c>
       <c r="J43" t="n">
-        <v>172.3606746759555</v>
+        <v>172.3606746759554</v>
       </c>
       <c r="K43" t="n">
-        <v>422.056022466516</v>
+        <v>422.0560224665163</v>
       </c>
       <c r="L43" t="n">
-        <v>783.9589157004186</v>
+        <v>783.9589157004189</v>
       </c>
       <c r="M43" t="n">
         <v>1173.368248228622</v>
@@ -7591,28 +7591,28 @@
         <v>2306.770976245276</v>
       </c>
       <c r="R43" t="n">
-        <v>2264.393204604949</v>
+        <v>2264.39320460495</v>
       </c>
       <c r="S43" t="n">
-        <v>2120.47568856408</v>
+        <v>2120.475688564081</v>
       </c>
       <c r="T43" t="n">
-        <v>1946.628247677644</v>
+        <v>1946.628247677645</v>
       </c>
       <c r="U43" t="n">
-        <v>1705.492913450327</v>
+        <v>1705.492913450328</v>
       </c>
       <c r="V43" t="n">
         <v>1498.776583211778</v>
       </c>
       <c r="W43" t="n">
-        <v>1257.327571142154</v>
+        <v>1257.327571142155</v>
       </c>
       <c r="X43" t="n">
-        <v>1077.306178211473</v>
+        <v>1077.306178211474</v>
       </c>
       <c r="Y43" t="n">
-        <v>904.4817570352806</v>
+        <v>904.4817570352812</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2030.155614289771</v>
+        <v>2030.155614289772</v>
       </c>
       <c r="C44" t="n">
-        <v>1709.161255316696</v>
+        <v>1709.161255316697</v>
       </c>
       <c r="D44" t="n">
         <v>1398.863714677283</v>
@@ -7637,61 +7637,61 @@
         <v>698.0258732241059</v>
       </c>
       <c r="G44" t="n">
-        <v>330.896023556946</v>
+        <v>330.8960235569461</v>
       </c>
       <c r="H44" t="n">
-        <v>81.01884059618835</v>
+        <v>81.01884059618838</v>
       </c>
       <c r="I44" t="n">
-        <v>81.01884059618835</v>
+        <v>81.01884059618838</v>
       </c>
       <c r="J44" t="n">
-        <v>267.77197869665</v>
+        <v>267.7719786966501</v>
       </c>
       <c r="K44" t="n">
-        <v>919.3089986437578</v>
+        <v>598.405040198305</v>
       </c>
       <c r="L44" t="n">
-        <v>1366.390309869718</v>
+        <v>1458.970953829211</v>
       </c>
       <c r="M44" t="n">
-        <v>1895.523849398989</v>
+        <v>1988.104493358482</v>
       </c>
       <c r="N44" t="n">
-        <v>2437.83313116876</v>
+        <v>2792.933499999977</v>
       </c>
       <c r="O44" t="n">
-        <v>2936.585146615783</v>
+        <v>3291.685515447</v>
       </c>
       <c r="P44" t="n">
-        <v>3646.338172994937</v>
+        <v>3682.857820736386</v>
       </c>
       <c r="Q44" t="n">
-        <v>3928.439184641668</v>
+        <v>3928.43918464167</v>
       </c>
       <c r="R44" t="n">
-        <v>4050.942029809417</v>
+        <v>4050.942029809419</v>
       </c>
       <c r="S44" t="n">
-        <v>3988.037128239893</v>
+        <v>3988.037128239894</v>
       </c>
       <c r="T44" t="n">
-        <v>3829.91566072497</v>
+        <v>3829.915660724971</v>
       </c>
       <c r="U44" t="n">
-        <v>3624.351297367784</v>
+        <v>3624.351297367785</v>
       </c>
       <c r="V44" t="n">
-        <v>3341.25656799155</v>
+        <v>3341.256567991551</v>
       </c>
       <c r="W44" t="n">
-        <v>3036.456070688773</v>
+        <v>3036.456070688774</v>
       </c>
       <c r="X44" t="n">
-        <v>2710.95847039503</v>
+        <v>2710.958470395031</v>
       </c>
       <c r="Y44" t="n">
-        <v>2368.787296386556</v>
+        <v>2368.787296386557</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>180.9028747588483</v>
       </c>
       <c r="H45" t="n">
-        <v>90.26891392974585</v>
+        <v>90.26891392974586</v>
       </c>
       <c r="I45" t="n">
-        <v>81.01884059618835</v>
+        <v>81.01884059618838</v>
       </c>
       <c r="J45" t="n">
-        <v>173.4298833047542</v>
+        <v>173.4298833047543</v>
       </c>
       <c r="K45" t="n">
-        <v>409.5298990329409</v>
+        <v>409.529899032941</v>
       </c>
       <c r="L45" t="n">
-        <v>773.3180478862748</v>
+        <v>773.3180478862751</v>
       </c>
       <c r="M45" t="n">
-        <v>1217.198526991924</v>
+        <v>1217.198526991925</v>
       </c>
       <c r="N45" t="n">
         <v>1687.23584648766</v>
       </c>
       <c r="O45" t="n">
-        <v>2095.008369383457</v>
+        <v>2095.008369383458</v>
       </c>
       <c r="P45" t="n">
-        <v>2402.948702624707</v>
+        <v>2402.948702624708</v>
       </c>
       <c r="Q45" t="n">
-        <v>2570.11445028495</v>
+        <v>2558.879463917154</v>
       </c>
       <c r="R45" t="n">
         <v>2570.11445028495</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>770.8014501723791</v>
+        <v>770.8014501723783</v>
       </c>
       <c r="C46" t="n">
-        <v>649.8334252118093</v>
+        <v>649.8334252118084</v>
       </c>
       <c r="D46" t="n">
-        <v>547.6849437668106</v>
+        <v>547.6849437668096</v>
       </c>
       <c r="E46" t="n">
-        <v>447.7400081517546</v>
+        <v>447.7400081517536</v>
       </c>
       <c r="F46" t="n">
-        <v>348.8182186211813</v>
+        <v>348.8182186211802</v>
       </c>
       <c r="G46" t="n">
-        <v>229.0720757577843</v>
+        <v>229.0720757577831</v>
       </c>
       <c r="H46" t="n">
-        <v>130.7211197344962</v>
+        <v>130.7211197344954</v>
       </c>
       <c r="I46" t="n">
-        <v>81.01884059618835</v>
+        <v>81.01884059618838</v>
       </c>
       <c r="J46" t="n">
-        <v>172.3606746759554</v>
+        <v>172.3606746759555</v>
       </c>
       <c r="K46" t="n">
         <v>422.0560224665164</v>
@@ -7813,25 +7813,25 @@
         <v>783.958915700419</v>
       </c>
       <c r="M46" t="n">
-        <v>1173.368248228623</v>
+        <v>1173.368248228622</v>
       </c>
       <c r="N46" t="n">
         <v>1560.070791752082</v>
       </c>
       <c r="O46" t="n">
-        <v>1904.825815190796</v>
+        <v>1904.825815190795</v>
       </c>
       <c r="P46" t="n">
-        <v>2183.087955925152</v>
+        <v>2183.087955925151</v>
       </c>
       <c r="Q46" t="n">
         <v>2306.770976245276</v>
       </c>
       <c r="R46" t="n">
-        <v>2264.393204604951</v>
+        <v>2264.39320460495</v>
       </c>
       <c r="S46" t="n">
-        <v>2120.475688564082</v>
+        <v>2120.475688564081</v>
       </c>
       <c r="T46" t="n">
         <v>1946.628247677645</v>
@@ -7840,16 +7840,16 @@
         <v>1705.492913450328</v>
       </c>
       <c r="V46" t="n">
-        <v>1498.776583211779</v>
+        <v>1498.776583211778</v>
       </c>
       <c r="W46" t="n">
-        <v>1257.327571142155</v>
+        <v>1257.327571142154</v>
       </c>
       <c r="X46" t="n">
-        <v>1077.306178211475</v>
+        <v>1077.306178211474</v>
       </c>
       <c r="Y46" t="n">
-        <v>904.4817570352817</v>
+        <v>904.4817570352809</v>
       </c>
     </row>
   </sheetData>
@@ -7982,13 +7982,13 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>250.4508600602684</v>
+        <v>251.0691524851223</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>245.0306783175538</v>
       </c>
       <c r="N2" t="n">
-        <v>244.715801111726</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
         <v>245.4009489368218</v>
@@ -8058,19 +8058,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>152.5258840646401</v>
+        <v>153.144176489494</v>
       </c>
       <c r="L3" t="n">
-        <v>153.8571172950092</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>157.4367714371534</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>146.0261571736144</v>
       </c>
       <c r="O3" t="n">
-        <v>157.8989819595795</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>149.2771449294653</v>
@@ -8143,13 +8143,13 @@
         <v>150.1874137963733</v>
       </c>
       <c r="M4" t="n">
-        <v>153.6102290378862</v>
+        <v>154.2285214627401</v>
       </c>
       <c r="N4" t="n">
         <v>142.9882819803682</v>
       </c>
       <c r="O4" t="n">
-        <v>153.7592759669778</v>
+        <v>153.1409835421239</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8216,19 +8216,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>235.3925885601156</v>
+        <v>234.7742961352617</v>
       </c>
       <c r="L5" t="n">
         <v>251.0691524851223</v>
       </c>
       <c r="M5" t="n">
-        <v>245.6489707424078</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>244.097508686872</v>
+        <v>244.715801111726</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>245.4009489368218</v>
       </c>
       <c r="P5" t="n">
         <v>231.2329957552695</v>
@@ -8307,13 +8307,13 @@
         <v>146.6444495984684</v>
       </c>
       <c r="O6" t="n">
-        <v>157.8989819595795</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>148.6588525046114</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>155.2845116011566</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8380,10 +8380,10 @@
         <v>150.1874137963733</v>
       </c>
       <c r="M7" t="n">
-        <v>154.2285214627401</v>
+        <v>153.6102290378862</v>
       </c>
       <c r="N7" t="n">
-        <v>142.3699895555143</v>
+        <v>142.9882819803682</v>
       </c>
       <c r="O7" t="n">
         <v>153.7592759669778</v>
@@ -8453,10 +8453,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>245.7101422396114</v>
+        <v>244.6749789590202</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M8" t="n">
         <v>230.3462332272727</v>
@@ -8465,10 +8465,10 @@
         <v>255.0333547912217</v>
       </c>
       <c r="O8" t="n">
-        <v>255.7185026163176</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>255.8181236693092</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,22 +8532,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>163.4617301689898</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>163.1395076939139</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>167.7543251166491</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>156.9620032779641</v>
       </c>
       <c r="O9" t="n">
-        <v>168.2165356390753</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>159.5946986089611</v>
+        <v>158.5595353283699</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>135.0783386655339</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,13 +8702,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>347.3933293254365</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>11.34847107858218</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8781,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>11.34847107858212</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8939,16 +8939,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>347.3933293254379</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>25.59462115395368</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,10 +9006,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>11.34847107858215</v>
       </c>
       <c r="L15" t="n">
-        <v>11.34847107858218</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9161,13 +9161,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>23.24791675427244</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>178.2967141533639</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9258,10 +9258,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>11.34847107858218</v>
       </c>
       <c r="Q18" t="n">
-        <v>11.34847107858241</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0.9834355670352295</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>347.3933293254373</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>347.3933293254361</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>11.34847107858216</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>11.34847107858218</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9647,13 +9647,13 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>328.1621975168715</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>114.1119270265177</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>11.34847107858236</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9735,7 +9735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>11.34847107858241</v>
       </c>
       <c r="R24" t="n">
         <v>0.9834355670352295</v>
@@ -9875,25 +9875,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>136.3145446552147</v>
+        <v>112.8831848355747</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>11.34847107858239</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9963,7 +9963,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>11.34847107858246</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>140.0323389844562</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>165.781355809725</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10209,10 +10209,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>11.34847107858289</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.9834355670352295</v>
+        <v>12.33190664561792</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,22 +10349,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>152.0079439422072</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>336.3775379551378</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>11.34847107858211</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10446,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>11.34847107858241</v>
       </c>
       <c r="R33" t="n">
         <v>0.9834355670352295</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10595,19 +10595,19 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>311.2021492758148</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>191.9373304712601</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10677,13 +10677,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>11.34847107858212</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>11.34847107858241</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0.9834355670352295</v>
@@ -10820,19 +10820,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>189.5906260715797</v>
+        <v>311.2021492758165</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>11.34847107858295</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10920,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>11.34847107858246</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0.9834355670352579</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11069,19 +11069,19 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>45.95018425357125</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>301.4210479828383</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,13 +11139,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>11.34847107858204</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>11.34847107858195</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11297,25 +11297,25 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>265.1714392643675</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.88853307216905</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11394,10 +11394,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>11.34847107858241</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.9834355670352295</v>
+        <v>12.33190664561651</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>135.09935489879</v>
+        <v>322.7205103171933</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>139.5575638062494</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>327.1787192246548</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>15.37691070201394</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>15.37691070201414</v>
       </c>
       <c r="H13" t="n">
         <v>102.3035413969047</v>
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>322.7205103171933</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>139.5575638062488</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>186.621311978303</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>67.21194748767827</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>208.4448146574636</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>14.81178552980067</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>102.868666569117</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.6804520989192</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>322.7205103171933</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23741,10 +23741,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>93.88342801910667</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>368.3946461043377</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>139.5575638062508</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>63.53910081814599</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3035413969047</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>54.14135128077335</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>15.37691070201405</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>93.88342801910802</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23981,10 +23981,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>368.3946461043377</v>
       </c>
       <c r="H20" t="n">
-        <v>25.1449642046794</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,13 +24017,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>67.21194748767827</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>161.4763477736235</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>208.4448146574636</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24130,10 +24130,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>13.79887090616372</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>103.8815811927549</v>
+        <v>103.881581192755</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>13.79887090616332</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>103.8815811927549</v>
+        <v>63.53910081814559</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>13.79887090616397</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>54.14135128077335</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0371578224268</v>
       </c>
       <c r="H28" t="n">
         <v>144.8559228507189</v>
       </c>
       <c r="I28" t="n">
-        <v>96.69373273458756</v>
+        <v>96.69373273458754</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,16 +24652,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5974428652358</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>44.70845896341339</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>11.96103237266271</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>117.5693180851556</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,7 +24853,7 @@
         <v>166.0371578224268</v>
       </c>
       <c r="H31" t="n">
-        <v>144.8559228507189</v>
+        <v>90.40952966591094</v>
       </c>
       <c r="I31" t="n">
         <v>96.69373273458756</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>89.44247031158628</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,10 +24898,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,13 +25075,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>164.5774636106687</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>145.9461155302532</v>
       </c>
       <c r="E34" t="n">
-        <v>143.76460515861</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>142.7516905349721</v>
@@ -25093,7 +25093,7 @@
         <v>142.1865653627598</v>
       </c>
       <c r="I34" t="n">
-        <v>94.02437524662841</v>
+        <v>94.0243752466284</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>71.90503408571638</v>
+        <v>86.77311282362712</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>187.2974597801649</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>106.1765302512026</v>
       </c>
     </row>
     <row r="35">
@@ -25694,7 +25694,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
     </row>
     <row r="42">
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-9.166001291305292e-13</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>815531.2867588352</v>
+        <v>815531.2867588354</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>815531.2867588352</v>
+        <v>815531.2867588354</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>815531.2867588352</v>
+        <v>815531.2867588351</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>852872.770868557</v>
+        <v>852872.7708685573</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>864924.7931922926</v>
+        <v>864924.7931922924</v>
       </c>
     </row>
     <row r="16">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="C2" t="n">
         <v>595255.2831516053</v>
@@ -26323,37 +26323,37 @@
         <v>566529.5756274203</v>
       </c>
       <c r="F2" t="n">
-        <v>566529.5756274203</v>
+        <v>566529.5756274206</v>
       </c>
       <c r="G2" t="n">
-        <v>566529.5756274203</v>
+        <v>566529.5756274202</v>
       </c>
       <c r="H2" t="n">
-        <v>566529.5756274203</v>
+        <v>566529.57562742</v>
       </c>
       <c r="I2" t="n">
-        <v>593207.6432850845</v>
+        <v>593207.6432850842</v>
       </c>
       <c r="J2" t="n">
         <v>575555.6422907892</v>
       </c>
       <c r="K2" t="n">
-        <v>575555.6422907888</v>
+        <v>575555.6422907892</v>
       </c>
       <c r="L2" t="n">
-        <v>576662.9716439703</v>
+        <v>576662.9716439705</v>
       </c>
       <c r="M2" t="n">
+        <v>595255.2831516054</v>
+      </c>
+      <c r="N2" t="n">
+        <v>595255.2831516054</v>
+      </c>
+      <c r="O2" t="n">
+        <v>595255.2831516055</v>
+      </c>
+      <c r="P2" t="n">
         <v>595255.2831516056</v>
-      </c>
-      <c r="N2" t="n">
-        <v>595255.2831516055</v>
-      </c>
-      <c r="O2" t="n">
-        <v>595255.2831516056</v>
-      </c>
-      <c r="P2" t="n">
-        <v>595255.2831516057</v>
       </c>
     </row>
     <row r="3">
@@ -26375,7 +26375,7 @@
         <v>1168996.544092822</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5.934426650266395e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>31676.31615877666</v>
+        <v>31676.31615877675</v>
       </c>
       <c r="J3" t="n">
-        <v>47037.16913399321</v>
+        <v>47037.16913399316</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5.934426650266395e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>2135.48599036732</v>
+        <v>2135.485990367264</v>
       </c>
       <c r="M3" t="n">
-        <v>213747.27277012</v>
+        <v>213747.2727701201</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>400839.1127573195</v>
       </c>
       <c r="E4" t="n">
-        <v>58234.87104819919</v>
+        <v>58234.87104819923</v>
       </c>
       <c r="F4" t="n">
-        <v>58234.8710481992</v>
+        <v>58234.87104819928</v>
       </c>
       <c r="G4" t="n">
         <v>58234.87104819922</v>
       </c>
       <c r="H4" t="n">
-        <v>58234.87104819922</v>
+        <v>58234.87104819918</v>
       </c>
       <c r="I4" t="n">
         <v>68615.91690536943</v>
       </c>
       <c r="J4" t="n">
-        <v>39948.31266226691</v>
+        <v>39948.31266226689</v>
       </c>
       <c r="K4" t="n">
         <v>39948.31266226691</v>
       </c>
       <c r="L4" t="n">
-        <v>41746.66287049752</v>
+        <v>41746.66287049751</v>
       </c>
       <c r="M4" t="n">
         <v>71827.95602220031</v>
       </c>
       <c r="N4" t="n">
-        <v>71827.95602220035</v>
+        <v>71827.95602220036</v>
       </c>
       <c r="O4" t="n">
         <v>71827.95602220032</v>
       </c>
       <c r="P4" t="n">
-        <v>71827.95602220031</v>
+        <v>71827.95602220026</v>
       </c>
     </row>
     <row r="5">
@@ -26476,22 +26476,22 @@
         <v>35185.31370463355</v>
       </c>
       <c r="E5" t="n">
-        <v>82611.79378983035</v>
+        <v>82611.79378983038</v>
       </c>
       <c r="F5" t="n">
-        <v>82611.79378983035</v>
+        <v>82611.79378983038</v>
       </c>
       <c r="G5" t="n">
         <v>82611.79378983036</v>
       </c>
       <c r="H5" t="n">
-        <v>82611.79378983036</v>
+        <v>82611.79378983034</v>
       </c>
       <c r="I5" t="n">
         <v>89854.24557984927</v>
       </c>
       <c r="J5" t="n">
-        <v>96276.85064322886</v>
+        <v>96276.85064322884</v>
       </c>
       <c r="K5" t="n">
         <v>96276.85064322886</v>
@@ -26509,7 +26509,7 @@
         <v>89186.55374376784</v>
       </c>
       <c r="P5" t="n">
-        <v>89186.55374376784</v>
+        <v>89186.55374376787</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>153042.4300936196</v>
+        <v>153042.4300936198</v>
       </c>
       <c r="C6" t="n">
         <v>158170.7293979044</v>
@@ -26528,40 +26528,40 @@
         <v>156025.9149901902</v>
       </c>
       <c r="E6" t="n">
-        <v>-743313.6333034309</v>
+        <v>-743412.6874673077</v>
       </c>
       <c r="F6" t="n">
-        <v>425682.9107893908</v>
+        <v>425583.8566255143</v>
       </c>
       <c r="G6" t="n">
-        <v>425682.9107893907</v>
+        <v>425583.8566255141</v>
       </c>
       <c r="H6" t="n">
-        <v>425682.9107893907</v>
+        <v>425583.856625514</v>
       </c>
       <c r="I6" t="n">
-        <v>403061.1646410892</v>
+        <v>403054.1038139628</v>
       </c>
       <c r="J6" t="n">
-        <v>392293.3098513002</v>
+        <v>392225.3800552285</v>
       </c>
       <c r="K6" t="n">
-        <v>439330.4789852931</v>
+        <v>439262.5491892215</v>
       </c>
       <c r="L6" t="n">
-        <v>436906.8691889347</v>
+        <v>436842.757769943</v>
       </c>
       <c r="M6" t="n">
-        <v>220493.5006155176</v>
+        <v>220493.5006155171</v>
       </c>
       <c r="N6" t="n">
-        <v>434240.7733856373</v>
+        <v>434240.7733856372</v>
       </c>
       <c r="O6" t="n">
-        <v>434240.7733856375</v>
+        <v>434240.7733856374</v>
       </c>
       <c r="P6" t="n">
-        <v>434240.7733856376</v>
+        <v>434240.7733856374</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="F2" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381428</v>
       </c>
       <c r="G2" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="H2" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="I2" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,7 +26713,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.66935748795915</v>
+        <v>2.669357487959151</v>
       </c>
       <c r="M2" t="n">
         <v>47.48847638766372</v>
@@ -26725,7 +26725,7 @@
         <v>47.48847638766372</v>
       </c>
       <c r="P2" t="n">
-        <v>47.48847638766372</v>
+        <v>47.48847638766365</v>
       </c>
     </row>
     <row r="3">
@@ -26796,22 +26796,22 @@
         <v>25.62029119463083</v>
       </c>
       <c r="E4" t="n">
-        <v>911.4232148710433</v>
+        <v>911.4232148710439</v>
       </c>
       <c r="F4" t="n">
-        <v>911.4232148710433</v>
+        <v>911.4232148710437</v>
       </c>
       <c r="G4" t="n">
-        <v>911.4232148710436</v>
+        <v>911.4232148710437</v>
       </c>
       <c r="H4" t="n">
-        <v>911.4232148710436</v>
+        <v>911.4232148710432</v>
       </c>
       <c r="I4" t="n">
         <v>1030.542487733197</v>
       </c>
       <c r="J4" t="n">
-        <v>1195.015205164452</v>
+        <v>1195.015205164451</v>
       </c>
       <c r="K4" t="n">
         <v>1195.015205164452</v>
@@ -26829,7 +26829,7 @@
         <v>1012.735507452354</v>
       </c>
       <c r="P4" t="n">
-        <v>1012.735507452354</v>
+        <v>1012.735507452355</v>
       </c>
     </row>
   </sheetData>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7.418033312832994e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>7.418033312832994e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>2.66935748795915</v>
+        <v>2.66935748795908</v>
       </c>
       <c r="M2" t="n">
-        <v>44.81911889970456</v>
+        <v>44.81911889970457</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>10.31755367949578</v>
       </c>
       <c r="E4" t="n">
-        <v>885.8029236764125</v>
+        <v>885.8029236764131</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>119.1192728621533</v>
+        <v>119.1192728621536</v>
       </c>
       <c r="J4" t="n">
-        <v>179.7754549463898</v>
+        <v>179.7754549463896</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>713.8407796438112</v>
+        <v>713.8407796438117</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>7.418033312832994e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7.418033312832994e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>10.31755367949578</v>
       </c>
       <c r="M4" t="n">
-        <v>885.8029236764125</v>
+        <v>885.8029236764131</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27397,10 +27397,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>195.1731520552709</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,19 +27421,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.03464559240276976</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>193.7173320711103</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>207.7931120489963</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>244.743047446217</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27461,25 +27461,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>134.7130056875657</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>142.3423429402659</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>129.7664748782488</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>122.0407796480756</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>96.93270672136141</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27506,19 +27506,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>156.3804335887028</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>212.4627308776439</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>236.3922456457846</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27543,13 +27543,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>131.1312251314341</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>130.1183105077962</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>152.6882418433237</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
@@ -27579,22 +27579,22 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>70.85930573655934</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>163.8147401738385</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>208.7138605218372</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>272.8403781531599</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>236.834905808693</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27631,13 +27631,13 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>332.8721966541476</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,16 +27658,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>193.7519776635131</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>207.7931120489963</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27676,7 +27676,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>333.938231202278</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27698,7 +27698,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>133.9664143613078</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27713,10 +27713,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>74.09389533628003</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,25 +27740,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.85509663750808</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>158.9511112267647</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>184.8619911796866</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>217.4978496342902</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>236.3922456457846</v>
       </c>
       <c r="X6" t="n">
-        <v>190.4702476883424</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>166.3533289786064</v>
+        <v>164.5292426668022</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>151.9440835834928</v>
       </c>
       <c r="D7" t="n">
-        <v>133.3127355030773</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27822,10 +27822,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>208.7138605218372</v>
+        <v>210.5379468336413</v>
       </c>
       <c r="T7" t="n">
-        <v>212.6428519131464</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>203.2819158369597</v>
       </c>
     </row>
     <row r="8">
@@ -27859,19 +27859,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>369.3547168025758</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>381.2557545470806</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>389.6824463205042</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>313.8545109211363</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>210.0883203430216</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -27895,19 +27895,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>124.2488267465189</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>197.4755583695005</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>225.7253617132057</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27953,7 +27953,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>74.5375429580123</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>149.116818619607</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>174.5444375001908</v>
       </c>
       <c r="U9" t="n">
         <v>200.321090886344</v>
@@ -27992,7 +27992,7 @@
         <v>207.1802959547944</v>
       </c>
       <c r="W9" t="n">
-        <v>229.8752220029466</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>144.680468614397</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>122.9951818235815</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>120.8136714519383</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>119.8007568283004</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28050,22 +28050,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>60.54175205706355</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>157.4484796280452</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>202.3252982336507</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>260.69873816186</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="C11" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="D11" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="E11" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="F11" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="G11" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="H11" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="I11" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="T11" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="U11" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="V11" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="W11" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="X11" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="Y11" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="C13" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="D13" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="E13" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="F13" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="G13" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="H13" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="I13" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="J13" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="K13" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="L13" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="M13" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="N13" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="O13" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="P13" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="Q13" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="R13" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="S13" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="T13" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="U13" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="V13" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="W13" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="X13" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="Y13" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381428</v>
       </c>
       <c r="C14" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381428</v>
       </c>
       <c r="D14" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381428</v>
       </c>
       <c r="E14" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381428</v>
       </c>
       <c r="F14" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381428</v>
       </c>
       <c r="G14" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381428</v>
       </c>
       <c r="H14" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381428</v>
       </c>
       <c r="I14" t="n">
         <v>42.55238145381421</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381428</v>
       </c>
       <c r="T14" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381428</v>
       </c>
       <c r="U14" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381428</v>
       </c>
       <c r="V14" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381428</v>
       </c>
       <c r="W14" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381428</v>
       </c>
       <c r="X14" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381428</v>
       </c>
       <c r="Y14" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381428</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381428</v>
       </c>
       <c r="C16" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381428</v>
       </c>
       <c r="D16" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381428</v>
       </c>
       <c r="E16" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381428</v>
       </c>
       <c r="F16" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381428</v>
       </c>
       <c r="G16" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381428</v>
       </c>
       <c r="H16" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381428</v>
       </c>
       <c r="I16" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381428</v>
       </c>
       <c r="J16" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381428</v>
       </c>
       <c r="K16" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381428</v>
       </c>
       <c r="L16" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381428</v>
       </c>
       <c r="M16" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381428</v>
       </c>
       <c r="N16" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381428</v>
       </c>
       <c r="O16" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381428</v>
       </c>
       <c r="P16" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381428</v>
       </c>
       <c r="Q16" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381428</v>
       </c>
       <c r="R16" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381428</v>
       </c>
       <c r="S16" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381428</v>
       </c>
       <c r="T16" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381428</v>
       </c>
       <c r="U16" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381428</v>
       </c>
       <c r="V16" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381428</v>
       </c>
       <c r="W16" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381428</v>
       </c>
       <c r="X16" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381428</v>
       </c>
       <c r="Y16" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381428</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="C17" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="D17" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="E17" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="F17" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="G17" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="H17" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="I17" t="n">
         <v>42.55238145381421</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="T17" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="U17" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="V17" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="W17" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="X17" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="Y17" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="C19" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="D19" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="E19" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="F19" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="G19" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="H19" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="I19" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="J19" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="K19" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="L19" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="M19" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="N19" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="O19" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="P19" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="Q19" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="R19" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="S19" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="T19" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="U19" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="V19" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="W19" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="X19" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="Y19" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="C20" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="D20" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="E20" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="F20" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="G20" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="H20" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="I20" t="n">
         <v>42.55238145381421</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="T20" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="U20" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="V20" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="W20" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="X20" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="Y20" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="C22" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="D22" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="E22" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="F22" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="G22" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="H22" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="I22" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="J22" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="K22" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="L22" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="M22" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="N22" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="O22" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="P22" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="Q22" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="R22" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="S22" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="T22" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="U22" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="V22" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="W22" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="X22" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="Y22" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="C23" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="D23" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="E23" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="F23" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="G23" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="H23" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="I23" t="n">
         <v>42.55238145381421</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="T23" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="U23" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="V23" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="W23" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="X23" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="Y23" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="C25" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="D25" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="E25" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="F25" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="G25" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="H25" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="I25" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="J25" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="K25" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="L25" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="M25" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="N25" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="O25" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="P25" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="Q25" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="R25" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="S25" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="T25" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="U25" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="V25" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="W25" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="X25" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
       <c r="Y25" t="n">
-        <v>42.55238145381423</v>
+        <v>42.55238145381421</v>
       </c>
     </row>
     <row r="26">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.66935748795915</v>
+        <v>2.669357487959151</v>
       </c>
       <c r="C32" t="n">
-        <v>2.66935748795915</v>
+        <v>2.669357487959151</v>
       </c>
       <c r="D32" t="n">
-        <v>2.66935748795915</v>
+        <v>2.669357487959151</v>
       </c>
       <c r="E32" t="n">
-        <v>2.66935748795915</v>
+        <v>2.669357487959151</v>
       </c>
       <c r="F32" t="n">
-        <v>2.66935748795915</v>
+        <v>2.669357487959151</v>
       </c>
       <c r="G32" t="n">
-        <v>2.66935748795915</v>
+        <v>2.669357487959151</v>
       </c>
       <c r="H32" t="n">
-        <v>2.66935748795915</v>
+        <v>2.669357487959151</v>
       </c>
       <c r="I32" t="n">
-        <v>2.66935748795915</v>
+        <v>2.669357487959151</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>2.66935748795915</v>
+        <v>2.669357487959151</v>
       </c>
       <c r="T32" t="n">
-        <v>2.66935748795915</v>
+        <v>2.669357487959151</v>
       </c>
       <c r="U32" t="n">
-        <v>2.66935748795915</v>
+        <v>2.669357487959151</v>
       </c>
       <c r="V32" t="n">
-        <v>2.66935748795915</v>
+        <v>2.669357487959151</v>
       </c>
       <c r="W32" t="n">
-        <v>2.66935748795915</v>
+        <v>2.669357487959151</v>
       </c>
       <c r="X32" t="n">
-        <v>2.66935748795915</v>
+        <v>2.669357487959151</v>
       </c>
       <c r="Y32" t="n">
-        <v>2.66935748795915</v>
+        <v>2.669357487959151</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.66935748795915</v>
+        <v>2.669357487959151</v>
       </c>
       <c r="C34" t="n">
-        <v>2.66935748795915</v>
+        <v>2.669357487959151</v>
       </c>
       <c r="D34" t="n">
-        <v>2.66935748795915</v>
+        <v>2.669357487959151</v>
       </c>
       <c r="E34" t="n">
-        <v>2.66935748795915</v>
+        <v>2.669357487959151</v>
       </c>
       <c r="F34" t="n">
-        <v>2.66935748795915</v>
+        <v>2.669357487959151</v>
       </c>
       <c r="G34" t="n">
-        <v>2.66935748795915</v>
+        <v>2.669357487959151</v>
       </c>
       <c r="H34" t="n">
-        <v>2.66935748795915</v>
+        <v>2.669357487959151</v>
       </c>
       <c r="I34" t="n">
-        <v>2.66935748795915</v>
+        <v>2.669357487959151</v>
       </c>
       <c r="J34" t="n">
-        <v>2.66935748795915</v>
+        <v>2.669357487959151</v>
       </c>
       <c r="K34" t="n">
-        <v>2.66935748795915</v>
+        <v>2.669357487959151</v>
       </c>
       <c r="L34" t="n">
-        <v>2.66935748795915</v>
+        <v>2.669357487959151</v>
       </c>
       <c r="M34" t="n">
-        <v>2.66935748795915</v>
+        <v>2.669357487959151</v>
       </c>
       <c r="N34" t="n">
-        <v>2.66935748795915</v>
+        <v>2.669357487959151</v>
       </c>
       <c r="O34" t="n">
-        <v>2.66935748795915</v>
+        <v>2.669357487959151</v>
       </c>
       <c r="P34" t="n">
-        <v>2.66935748795915</v>
+        <v>2.669357487959151</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.66935748795915</v>
+        <v>2.669357487959151</v>
       </c>
       <c r="R34" t="n">
-        <v>2.66935748795915</v>
+        <v>2.669357487959151</v>
       </c>
       <c r="S34" t="n">
-        <v>2.66935748795915</v>
+        <v>2.669357487959151</v>
       </c>
       <c r="T34" t="n">
-        <v>2.66935748795915</v>
+        <v>2.669357487959151</v>
       </c>
       <c r="U34" t="n">
-        <v>2.66935748795915</v>
+        <v>2.669357487959151</v>
       </c>
       <c r="V34" t="n">
-        <v>2.66935748795915</v>
+        <v>2.669357487959151</v>
       </c>
       <c r="W34" t="n">
-        <v>2.66935748795915</v>
+        <v>2.669357487959151</v>
       </c>
       <c r="X34" t="n">
-        <v>2.66935748795915</v>
+        <v>2.669357487959151</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.66935748795915</v>
+        <v>2.669357487959151</v>
       </c>
     </row>
     <row r="35">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>47.48847638766372</v>
+        <v>47.48847638766365</v>
       </c>
       <c r="C44" t="n">
-        <v>47.48847638766372</v>
+        <v>47.48847638766365</v>
       </c>
       <c r="D44" t="n">
-        <v>47.48847638766372</v>
+        <v>47.48847638766365</v>
       </c>
       <c r="E44" t="n">
-        <v>47.48847638766372</v>
+        <v>47.48847638766365</v>
       </c>
       <c r="F44" t="n">
-        <v>47.48847638766372</v>
+        <v>47.48847638766365</v>
       </c>
       <c r="G44" t="n">
-        <v>47.48847638766372</v>
+        <v>47.48847638766365</v>
       </c>
       <c r="H44" t="n">
-        <v>47.48847638766372</v>
+        <v>47.48847638766365</v>
       </c>
       <c r="I44" t="n">
-        <v>42.55238145381421</v>
+        <v>42.55238145381418</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>47.48847638766372</v>
+        <v>47.48847638766365</v>
       </c>
       <c r="T44" t="n">
-        <v>47.48847638766372</v>
+        <v>47.48847638766365</v>
       </c>
       <c r="U44" t="n">
-        <v>47.48847638766372</v>
+        <v>47.48847638766365</v>
       </c>
       <c r="V44" t="n">
-        <v>47.48847638766372</v>
+        <v>47.48847638766365</v>
       </c>
       <c r="W44" t="n">
-        <v>47.48847638766372</v>
+        <v>47.48847638766365</v>
       </c>
       <c r="X44" t="n">
-        <v>47.48847638766372</v>
+        <v>47.48847638766365</v>
       </c>
       <c r="Y44" t="n">
-        <v>47.48847638766372</v>
+        <v>47.48847638766365</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.48847638766372</v>
+        <v>47.48847638766365</v>
       </c>
       <c r="C46" t="n">
-        <v>47.48847638766372</v>
+        <v>47.48847638766365</v>
       </c>
       <c r="D46" t="n">
-        <v>47.48847638766372</v>
+        <v>47.48847638766365</v>
       </c>
       <c r="E46" t="n">
-        <v>47.48847638766372</v>
+        <v>47.48847638766365</v>
       </c>
       <c r="F46" t="n">
-        <v>47.48847638766372</v>
+        <v>47.48847638766365</v>
       </c>
       <c r="G46" t="n">
-        <v>47.48847638766372</v>
+        <v>47.48847638766365</v>
       </c>
       <c r="H46" t="n">
-        <v>47.48847638766372</v>
+        <v>47.48847638766365</v>
       </c>
       <c r="I46" t="n">
-        <v>47.48847638766372</v>
+        <v>47.48847638766365</v>
       </c>
       <c r="J46" t="n">
-        <v>47.48847638766372</v>
+        <v>47.48847638766365</v>
       </c>
       <c r="K46" t="n">
-        <v>47.48847638766372</v>
+        <v>47.48847638766365</v>
       </c>
       <c r="L46" t="n">
-        <v>47.48847638766372</v>
+        <v>47.48847638766365</v>
       </c>
       <c r="M46" t="n">
-        <v>47.48847638766372</v>
+        <v>47.48847638766365</v>
       </c>
       <c r="N46" t="n">
-        <v>47.48847638766372</v>
+        <v>47.48847638766365</v>
       </c>
       <c r="O46" t="n">
-        <v>47.48847638766372</v>
+        <v>47.48847638766365</v>
       </c>
       <c r="P46" t="n">
-        <v>47.48847638766372</v>
+        <v>47.48847638766365</v>
       </c>
       <c r="Q46" t="n">
-        <v>47.48847638766372</v>
+        <v>47.48847638766365</v>
       </c>
       <c r="R46" t="n">
-        <v>47.48847638766372</v>
+        <v>47.48847638766365</v>
       </c>
       <c r="S46" t="n">
-        <v>47.48847638766372</v>
+        <v>47.48847638766365</v>
       </c>
       <c r="T46" t="n">
-        <v>47.48847638766372</v>
+        <v>47.48847638766365</v>
       </c>
       <c r="U46" t="n">
-        <v>47.48847638766372</v>
+        <v>47.48847638766365</v>
       </c>
       <c r="V46" t="n">
-        <v>47.48847638766372</v>
+        <v>47.48847638766365</v>
       </c>
       <c r="W46" t="n">
-        <v>47.48847638766372</v>
+        <v>47.48847638766365</v>
       </c>
       <c r="X46" t="n">
-        <v>47.48847638766372</v>
+        <v>47.48847638766365</v>
       </c>
       <c r="Y46" t="n">
-        <v>47.48847638766372</v>
+        <v>47.48847638766365</v>
       </c>
     </row>
   </sheetData>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.355709956983115</v>
+        <v>4.355709956983116</v>
       </c>
       <c r="H44" t="n">
         <v>44.60791459695334</v>
@@ -34366,40 +34366,40 @@
         <v>167.9235081165917</v>
       </c>
       <c r="J44" t="n">
-        <v>369.685437961496</v>
+        <v>369.6854379614961</v>
       </c>
       <c r="K44" t="n">
-        <v>554.0626404405914</v>
+        <v>554.0626404405915</v>
       </c>
       <c r="L44" t="n">
-        <v>687.3636990366135</v>
+        <v>687.3636990366136</v>
       </c>
       <c r="M44" t="n">
-        <v>764.824555984112</v>
+        <v>764.8245559841121</v>
       </c>
       <c r="N44" t="n">
-        <v>777.2002168993903</v>
+        <v>777.2002168993904</v>
       </c>
       <c r="O44" t="n">
-        <v>733.8881260146394</v>
+        <v>733.8881260146395</v>
       </c>
       <c r="P44" t="n">
-        <v>626.3565364516186</v>
+        <v>626.3565364516188</v>
       </c>
       <c r="Q44" t="n">
-        <v>470.3676736171607</v>
+        <v>470.3676736171608</v>
       </c>
       <c r="R44" t="n">
-        <v>273.6093655853408</v>
+        <v>273.6093655853409</v>
       </c>
       <c r="S44" t="n">
-        <v>99.25574064475283</v>
+        <v>99.25574064475285</v>
       </c>
       <c r="T44" t="n">
-        <v>19.06712033669359</v>
+        <v>19.0671203366936</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3484567965586491</v>
+        <v>0.3484567965586492</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,40 +34442,40 @@
         <v>22.50782301568501</v>
       </c>
       <c r="I45" t="n">
-        <v>80.23906025119315</v>
+        <v>80.23906025119317</v>
       </c>
       <c r="J45" t="n">
         <v>220.1821142510767</v>
       </c>
       <c r="K45" t="n">
-        <v>376.3263033462647</v>
+        <v>376.3263033462648</v>
       </c>
       <c r="L45" t="n">
-        <v>506.0171563994034</v>
+        <v>506.0171563994035</v>
       </c>
       <c r="M45" t="n">
-        <v>590.4981542307551</v>
+        <v>590.4981542307552</v>
       </c>
       <c r="N45" t="n">
-        <v>606.1268832911468</v>
+        <v>606.1268832911469</v>
       </c>
       <c r="O45" t="n">
-        <v>554.4876817129266</v>
+        <v>554.4876817129267</v>
       </c>
       <c r="P45" t="n">
-        <v>445.0252490721589</v>
+        <v>445.025249072159</v>
       </c>
       <c r="Q45" t="n">
-        <v>297.4875935733408</v>
+        <v>297.4875935733409</v>
       </c>
       <c r="R45" t="n">
-        <v>144.6960683969287</v>
+        <v>144.6960683969288</v>
       </c>
       <c r="S45" t="n">
-        <v>43.28820639029334</v>
+        <v>43.28820639029335</v>
       </c>
       <c r="T45" t="n">
-        <v>9.393591894375346</v>
+        <v>9.393591894375348</v>
       </c>
       <c r="U45" t="n">
         <v>0.1533230450659742</v>
@@ -34515,16 +34515,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.953821536031976</v>
+        <v>1.953821536031977</v>
       </c>
       <c r="H46" t="n">
-        <v>17.37124965672067</v>
+        <v>17.37124965672068</v>
       </c>
       <c r="I46" t="n">
-        <v>58.75674219267073</v>
+        <v>58.75674219267074</v>
       </c>
       <c r="J46" t="n">
-        <v>138.1351825974607</v>
+        <v>138.1351825974608</v>
       </c>
       <c r="K46" t="n">
         <v>226.9985384589878</v>
@@ -34533,7 +34533,7 @@
         <v>290.4799763660632</v>
       </c>
       <c r="M46" t="n">
-        <v>306.2704067799942</v>
+        <v>306.2704067799943</v>
       </c>
       <c r="N46" t="n">
         <v>298.9879810547844</v>
@@ -34545,16 +34545,16 @@
         <v>236.3058337760855</v>
       </c>
       <c r="Q46" t="n">
-        <v>163.6059106217321</v>
+        <v>163.6059106217322</v>
       </c>
       <c r="R46" t="n">
-        <v>87.85092106558321</v>
+        <v>87.85092106558322</v>
       </c>
       <c r="S46" t="n">
-        <v>34.04978076884816</v>
+        <v>34.04978076884817</v>
       </c>
       <c r="T46" t="n">
-        <v>8.348146563045715</v>
+        <v>8.348146563045717</v>
       </c>
       <c r="U46" t="n">
         <v>0.1065720837835625</v>
@@ -34702,13 +34702,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="M2" t="n">
         <v>14.68444509028111</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="N2" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>15.30273751513505</v>
@@ -34778,19 +34778,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="N3" t="n">
         <v>14.68444509028111</v>
       </c>
-      <c r="L3" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>15.30273751513505</v>
@@ -34863,13 +34863,13 @@
         <v>15.30273751513505</v>
       </c>
       <c r="M4" t="n">
-        <v>14.68444509028111</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="N4" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="O4" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34936,19 +34936,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="L5" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="N5" t="n">
-        <v>14.68444509028111</v>
-      </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35027,13 +35027,13 @@
         <v>15.30273751513505</v>
       </c>
       <c r="O6" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>14.68444509028111</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35100,10 +35100,10 @@
         <v>15.30273751513505</v>
       </c>
       <c r="M7" t="n">
+        <v>14.68444509028111</v>
+      </c>
+      <c r="N7" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="N7" t="n">
-        <v>14.68444509028111</v>
       </c>
       <c r="O7" t="n">
         <v>15.30273751513505</v>
@@ -35173,10 +35173,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>24.58512791403969</v>
+      </c>
+      <c r="L8" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>25.62029119463083</v>
       </c>
       <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="P8" t="n">
-        <v>24.58512791403969</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="N9" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>24.58512791403969</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="P9" t="n">
-        <v>25.62029119463083</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35413,7 +35413,7 @@
         <v>333.9727893956108</v>
       </c>
       <c r="L11" t="n">
-        <v>451.5972840666263</v>
+        <v>586.6756227321602</v>
       </c>
       <c r="M11" t="n">
         <v>534.4783227568392</v>
@@ -35422,13 +35422,13 @@
         <v>547.7871533027994</v>
       </c>
       <c r="O11" t="n">
-        <v>851.1832439183892</v>
+        <v>503.7899145929526</v>
       </c>
       <c r="P11" t="n">
         <v>395.123540696349</v>
       </c>
       <c r="Q11" t="n">
-        <v>248.0619837427112</v>
+        <v>460.3769744026159</v>
       </c>
       <c r="R11" t="n">
         <v>58.02382777120869</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>104.6929586629921</v>
+        <v>93.34448758440996</v>
       </c>
       <c r="K12" t="n">
         <v>238.4848643719057</v>
@@ -35501,7 +35501,7 @@
         <v>474.7851712078135</v>
       </c>
       <c r="O12" t="n">
-        <v>411.8914372684822</v>
+        <v>423.2399083470643</v>
       </c>
       <c r="P12" t="n">
         <v>311.0508416578286</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.32838393460219</v>
+        <v>87.32838393460216</v>
       </c>
       <c r="K13" t="n">
         <v>247.2814280869191</v>
@@ -35574,13 +35574,13 @@
         <v>360.6223830801935</v>
       </c>
       <c r="M13" t="n">
-        <v>388.4066651956491</v>
+        <v>388.406665195649</v>
       </c>
       <c r="N13" t="n">
         <v>385.6725348878272</v>
       </c>
       <c r="O13" t="n">
-        <v>343.3013024789919</v>
+        <v>343.3013024789918</v>
       </c>
       <c r="P13" t="n">
         <v>276.1367744947932</v>
@@ -35659,16 +35659,16 @@
         <v>547.7871533027994</v>
       </c>
       <c r="O14" t="n">
-        <v>503.7899145929526</v>
+        <v>851.1832439183905</v>
       </c>
       <c r="P14" t="n">
-        <v>716.9222488678317</v>
+        <v>395.123540696349</v>
       </c>
       <c r="Q14" t="n">
         <v>248.0619837427112</v>
       </c>
       <c r="R14" t="n">
-        <v>83.61844892516237</v>
+        <v>58.02382777120869</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,10 +35726,10 @@
         <v>93.34448758440996</v>
       </c>
       <c r="K15" t="n">
-        <v>238.4848643719057</v>
+        <v>249.8333354504879</v>
       </c>
       <c r="L15" t="n">
-        <v>378.8112476981114</v>
+        <v>367.4627766195292</v>
       </c>
       <c r="M15" t="n">
         <v>448.3641203087367</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.32838393460219</v>
+        <v>87.32838393460224</v>
       </c>
       <c r="K16" t="n">
-        <v>247.2814280869191</v>
+        <v>247.2814280869192</v>
       </c>
       <c r="L16" t="n">
-        <v>360.6223830801935</v>
+        <v>360.6223830801936</v>
       </c>
       <c r="M16" t="n">
         <v>388.4066651956491</v>
       </c>
       <c r="N16" t="n">
-        <v>385.6725348878272</v>
+        <v>385.6725348878273</v>
       </c>
       <c r="O16" t="n">
         <v>343.3013024789919</v>
       </c>
       <c r="P16" t="n">
-        <v>276.1367744947932</v>
+        <v>276.1367744947933</v>
       </c>
       <c r="Q16" t="n">
         <v>119.996248823852</v>
@@ -35881,13 +35881,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>211.8874501890822</v>
+        <v>357.7361486068835</v>
       </c>
       <c r="K17" t="n">
-        <v>658.1182019667756</v>
+        <v>333.9727893956108</v>
       </c>
       <c r="L17" t="n">
-        <v>451.5972840666263</v>
+        <v>629.8939982199902</v>
       </c>
       <c r="M17" t="n">
         <v>534.4783227568392</v>
@@ -35978,10 +35978,10 @@
         <v>411.8914372684822</v>
       </c>
       <c r="P18" t="n">
-        <v>311.0508416578286</v>
+        <v>322.3993127364108</v>
       </c>
       <c r="Q18" t="n">
-        <v>168.8542905659017</v>
+        <v>157.5058194873193</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,16 +36039,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.32838393460219</v>
+        <v>87.32838393460216</v>
       </c>
       <c r="K19" t="n">
         <v>247.2814280869191</v>
       </c>
       <c r="L19" t="n">
-        <v>360.6223830801936</v>
+        <v>360.6223830801935</v>
       </c>
       <c r="M19" t="n">
-        <v>388.4066651956491</v>
+        <v>388.406665195649</v>
       </c>
       <c r="N19" t="n">
         <v>385.6725348878272</v>
@@ -36124,7 +36124,7 @@
         <v>333.9727893956108</v>
       </c>
       <c r="L20" t="n">
-        <v>798.9906133920636</v>
+        <v>451.5972840666263</v>
       </c>
       <c r="M20" t="n">
         <v>534.4783227568392</v>
@@ -36133,7 +36133,7 @@
         <v>547.7871533027994</v>
       </c>
       <c r="O20" t="n">
-        <v>503.7899145929526</v>
+        <v>851.1832439183887</v>
       </c>
       <c r="P20" t="n">
         <v>395.123540696349</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>104.6929586629921</v>
+        <v>93.34448758440996</v>
       </c>
       <c r="K21" t="n">
         <v>238.4848643719057</v>
@@ -36215,7 +36215,7 @@
         <v>411.8914372684822</v>
       </c>
       <c r="P21" t="n">
-        <v>311.0508416578286</v>
+        <v>322.3993127364108</v>
       </c>
       <c r="Q21" t="n">
         <v>157.5058194873193</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.32838393460219</v>
+        <v>87.32838393460216</v>
       </c>
       <c r="K22" t="n">
         <v>247.2814280869191</v>
@@ -36285,7 +36285,7 @@
         <v>360.6223830801935</v>
       </c>
       <c r="M22" t="n">
-        <v>388.4066651956491</v>
+        <v>388.406665195649</v>
       </c>
       <c r="N22" t="n">
         <v>385.6725348878272</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>188.6395334348097</v>
+        <v>357.7361486068835</v>
       </c>
       <c r="K23" t="n">
-        <v>658.1182019667756</v>
+        <v>333.9727893956108</v>
       </c>
       <c r="L23" t="n">
         <v>451.5972840666263</v>
@@ -36367,13 +36367,13 @@
         <v>534.4783227568392</v>
       </c>
       <c r="N23" t="n">
-        <v>547.7871533027994</v>
+        <v>875.9493508196709</v>
       </c>
       <c r="O23" t="n">
-        <v>884.590095855698</v>
+        <v>503.7899145929526</v>
       </c>
       <c r="P23" t="n">
-        <v>509.2354677228668</v>
+        <v>716.9222488678317</v>
       </c>
       <c r="Q23" t="n">
         <v>248.0619837427112</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>104.6929586629923</v>
+        <v>93.34448758440996</v>
       </c>
       <c r="K24" t="n">
         <v>238.4848643719057</v>
@@ -36455,7 +36455,7 @@
         <v>311.0508416578286</v>
       </c>
       <c r="Q24" t="n">
-        <v>157.5058194873193</v>
+        <v>168.8542905659017</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.32838393460219</v>
+        <v>87.32838393460216</v>
       </c>
       <c r="K25" t="n">
         <v>247.2814280869191</v>
@@ -36522,13 +36522,13 @@
         <v>360.6223830801935</v>
       </c>
       <c r="M25" t="n">
-        <v>388.4066651956491</v>
+        <v>388.406665195649</v>
       </c>
       <c r="N25" t="n">
         <v>385.6725348878272</v>
       </c>
       <c r="O25" t="n">
-        <v>343.3013024789919</v>
+        <v>343.3013024789918</v>
       </c>
       <c r="P25" t="n">
         <v>276.1367744947932</v>
@@ -36595,25 +36595,25 @@
         <v>357.7361486068835</v>
       </c>
       <c r="K26" t="n">
-        <v>333.9727893956108</v>
+        <v>658.1182019667756</v>
       </c>
       <c r="L26" t="n">
-        <v>451.5972840666263</v>
+        <v>869.2584986170767</v>
       </c>
       <c r="M26" t="n">
-        <v>983.9918562496717</v>
+        <v>534.4783227568392</v>
       </c>
       <c r="N26" t="n">
-        <v>985.1340777147835</v>
+        <v>547.7871533027994</v>
       </c>
       <c r="O26" t="n">
-        <v>503.7899145929526</v>
+        <v>884.590095855698</v>
       </c>
       <c r="P26" t="n">
-        <v>531.4380853515637</v>
+        <v>508.0067255319237</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.3769744026159</v>
+        <v>248.0619837427112</v>
       </c>
       <c r="R26" t="n">
         <v>123.7402476441911</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>104.6929586629924</v>
+        <v>93.34448758440996</v>
       </c>
       <c r="K27" t="n">
         <v>238.4848643719057</v>
@@ -36683,7 +36683,7 @@
         <v>448.3641203087367</v>
       </c>
       <c r="N27" t="n">
-        <v>474.7851712078135</v>
+        <v>486.133642286396</v>
       </c>
       <c r="O27" t="n">
         <v>411.8914372684822</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>188.6395334348097</v>
+        <v>357.7361486068835</v>
       </c>
       <c r="K29" t="n">
-        <v>333.9727893956108</v>
+        <v>658.1182019667756</v>
       </c>
       <c r="L29" t="n">
-        <v>869.2584986170767</v>
+        <v>591.6296230510825</v>
       </c>
       <c r="M29" t="n">
         <v>983.9918562496717</v>
       </c>
       <c r="N29" t="n">
-        <v>985.1340777147835</v>
+        <v>547.7871533027994</v>
       </c>
       <c r="O29" t="n">
-        <v>669.5712704026777</v>
+        <v>503.7899145929526</v>
       </c>
       <c r="P29" t="n">
-        <v>395.123540696349</v>
+        <v>716.9222488678317</v>
       </c>
       <c r="Q29" t="n">
         <v>248.0619837427112</v>
       </c>
       <c r="R29" t="n">
-        <v>58.02382777120869</v>
+        <v>123.7402476441911</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36929,10 +36929,10 @@
         <v>311.0508416578286</v>
       </c>
       <c r="Q30" t="n">
-        <v>168.8542905659022</v>
+        <v>157.5058194873193</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>11.34847107858269</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,22 +37069,22 @@
         <v>357.7361486068835</v>
       </c>
       <c r="K32" t="n">
-        <v>658.1182019667756</v>
+        <v>485.9807333378181</v>
       </c>
       <c r="L32" t="n">
         <v>451.5972840666263</v>
       </c>
       <c r="M32" t="n">
-        <v>534.4783227568392</v>
+        <v>983.9918562496717</v>
       </c>
       <c r="N32" t="n">
         <v>547.7871533027994</v>
       </c>
       <c r="O32" t="n">
-        <v>840.1674525480904</v>
+        <v>884.590095855698</v>
       </c>
       <c r="P32" t="n">
-        <v>716.9222488678317</v>
+        <v>395.123540696349</v>
       </c>
       <c r="Q32" t="n">
         <v>460.3769744026159</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>104.6929586629921</v>
+        <v>93.34448758440996</v>
       </c>
       <c r="K33" t="n">
         <v>238.4848643719057</v>
@@ -37166,7 +37166,7 @@
         <v>311.0508416578286</v>
       </c>
       <c r="Q33" t="n">
-        <v>157.5058194873193</v>
+        <v>168.8542905659017</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>357.7361486068835</v>
+        <v>188.6395334348097</v>
       </c>
       <c r="K35" t="n">
         <v>333.9727893956108</v>
@@ -37315,19 +37315,19 @@
         <v>534.4783227568392</v>
       </c>
       <c r="N35" t="n">
-        <v>547.7871533027994</v>
+        <v>985.1340777147835</v>
       </c>
       <c r="O35" t="n">
-        <v>503.7899145929526</v>
+        <v>814.9920638687674</v>
       </c>
       <c r="P35" t="n">
-        <v>716.9222488678317</v>
+        <v>395.123540696349</v>
       </c>
       <c r="Q35" t="n">
-        <v>439.9993142139713</v>
+        <v>248.0619837427112</v>
       </c>
       <c r="R35" t="n">
-        <v>123.7402476441911</v>
+        <v>58.02382777120869</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37397,13 +37397,13 @@
         <v>474.7851712078135</v>
       </c>
       <c r="O36" t="n">
-        <v>411.8914372684822</v>
+        <v>423.2399083470643</v>
       </c>
       <c r="P36" t="n">
         <v>311.0508416578286</v>
       </c>
       <c r="Q36" t="n">
-        <v>168.8542905659017</v>
+        <v>157.5058194873193</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>357.7361486068834</v>
+        <v>188.6395334348096</v>
       </c>
       <c r="K38" t="n">
-        <v>658.1182019667755</v>
+        <v>333.9727893956107</v>
       </c>
       <c r="L38" t="n">
-        <v>641.1879101382058</v>
+        <v>762.7994333424425</v>
       </c>
       <c r="M38" t="n">
         <v>534.478322756839</v>
       </c>
       <c r="N38" t="n">
-        <v>547.7871533027992</v>
+        <v>985.1340777147833</v>
       </c>
       <c r="O38" t="n">
         <v>503.7899145929524</v>
@@ -37564,7 +37564,7 @@
         <v>248.0619837427111</v>
       </c>
       <c r="R38" t="n">
-        <v>123.7402476441911</v>
+        <v>58.02382777120863</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>93.3444875844099</v>
       </c>
       <c r="K39" t="n">
-        <v>238.4848643719056</v>
+        <v>249.8333354504886</v>
       </c>
       <c r="L39" t="n">
         <v>367.4627766195291</v>
@@ -37640,7 +37640,7 @@
         <v>311.0508416578285</v>
       </c>
       <c r="Q39" t="n">
-        <v>168.8542905659017</v>
+        <v>157.5058194873192</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37716,7 +37716,7 @@
         <v>348.2373974128413</v>
       </c>
       <c r="P40" t="n">
-        <v>281.0728694286426</v>
+        <v>281.0728694286427</v>
       </c>
       <c r="Q40" t="n">
         <v>124.9323437577014</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>357.7361486068835</v>
+        <v>188.6395334348097</v>
       </c>
       <c r="K41" t="n">
         <v>333.9727893956108</v>
@@ -37789,19 +37789,19 @@
         <v>534.4783227568392</v>
       </c>
       <c r="N41" t="n">
-        <v>547.7871533027994</v>
+        <v>593.7373375563707</v>
       </c>
       <c r="O41" t="n">
-        <v>503.7899145929526</v>
+        <v>884.590095855698</v>
       </c>
       <c r="P41" t="n">
-        <v>696.5445886791873</v>
+        <v>716.9222488678317</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.3769744026159</v>
+        <v>248.0619837427112</v>
       </c>
       <c r="R41" t="n">
-        <v>123.7402476441911</v>
+        <v>58.02382777120869</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,13 +37859,13 @@
         <v>93.34448758440996</v>
       </c>
       <c r="K42" t="n">
-        <v>249.8333354504877</v>
+        <v>238.4848643719057</v>
       </c>
       <c r="L42" t="n">
         <v>367.4627766195292</v>
       </c>
       <c r="M42" t="n">
-        <v>448.3641203087367</v>
+        <v>459.7125913873187</v>
       </c>
       <c r="N42" t="n">
         <v>474.7851712078135</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>188.6395334348097</v>
+        <v>188.6395334348098</v>
       </c>
       <c r="K44" t="n">
-        <v>658.1182019667756</v>
+        <v>333.972789395611</v>
       </c>
       <c r="L44" t="n">
-        <v>451.5972840666263</v>
+        <v>869.2584986170768</v>
       </c>
       <c r="M44" t="n">
-        <v>534.4783227568392</v>
+        <v>534.4783227568394</v>
       </c>
       <c r="N44" t="n">
-        <v>547.7871533027994</v>
+        <v>812.9585925671669</v>
       </c>
       <c r="O44" t="n">
-        <v>503.7899145929526</v>
+        <v>503.7899145929528</v>
       </c>
       <c r="P44" t="n">
-        <v>716.9222488678317</v>
+        <v>395.1235406963493</v>
       </c>
       <c r="Q44" t="n">
-        <v>284.9505168148802</v>
+        <v>248.0619837427113</v>
       </c>
       <c r="R44" t="n">
-        <v>123.7402476441911</v>
+        <v>123.7402476441912</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>93.34448758440996</v>
+        <v>93.34448758440999</v>
       </c>
       <c r="K45" t="n">
-        <v>238.4848643719057</v>
+        <v>238.4848643719058</v>
       </c>
       <c r="L45" t="n">
-        <v>367.4627766195292</v>
+        <v>367.4627766195293</v>
       </c>
       <c r="M45" t="n">
-        <v>448.3641203087367</v>
+        <v>448.3641203087369</v>
       </c>
       <c r="N45" t="n">
-        <v>474.7851712078135</v>
+        <v>474.7851712078136</v>
       </c>
       <c r="O45" t="n">
-        <v>411.8914372684822</v>
+        <v>411.8914372684823</v>
       </c>
       <c r="P45" t="n">
-        <v>311.0508416578286</v>
+        <v>311.0508416578288</v>
       </c>
       <c r="Q45" t="n">
-        <v>168.8542905659017</v>
+        <v>157.5058194873193</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>11.34847107858131</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.26447886845168</v>
+        <v>92.26447886845162</v>
       </c>
       <c r="K46" t="n">
         <v>252.2175230207686</v>
@@ -38193,7 +38193,7 @@
         <v>281.0728694286427</v>
       </c>
       <c r="Q46" t="n">
-        <v>124.9323437577015</v>
+        <v>124.9323437577014</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
